--- a/uploads/thursday schedule.xlsx
+++ b/uploads/thursday schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethb\Documents\GitHub\nso_schedules\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ECCCB9-2B97-4778-A265-748A35B58F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2171EAA7-AE62-4211-BA03-40CF7CF6FD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D24987D2-A9CF-4F58-A0EE-AE26C4C17D0D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{D24987D2-A9CF-4F58-A0EE-AE26C4C17D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="276">
   <si>
     <t>Names</t>
   </si>
@@ -809,10 +809,6 @@
 12:00 PM - 1:00 PM</t>
   </si>
   <si>
-    <t>Set up for Walk Your Schedule Tours
-1:00 PM - 1:30PM</t>
-  </si>
-  <si>
     <t>Help prepare for Walk Your Schedule Tours in the Taylor Cultural Hall.</t>
   </si>
   <si>
@@ -846,6 +842,39 @@
   </si>
   <si>
     <t>Help clean up for the day</t>
+  </si>
+  <si>
+    <t>Attend Training
+1:00 PM - 3:00 PM</t>
+  </si>
+  <si>
+    <t>Set up for Walk Your Schedule Tours
+1:00 PM - 1:30 PM</t>
+  </si>
+  <si>
+    <t>Face to face and enrollment 20 mentor meeting with Sister Colvin in Taylor 111.</t>
+  </si>
+  <si>
+    <t>Transfer mentor meeting in the Mentor Hub.</t>
+  </si>
+  <si>
+    <t>Maria Berger</t>
+  </si>
+  <si>
+    <t>Colter Hinkley</t>
+  </si>
+  <si>
+    <t>Gentri Garner</t>
+  </si>
+  <si>
+    <t>Ember Rosier</t>
+  </si>
+  <si>
+    <t>Drew Torrens</t>
+  </si>
+  <si>
+    <t>Walk Your Schedule Tours
+3:00 PM - 5:00 PM</t>
   </si>
 </sst>
 </file>
@@ -1268,28 +1297,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9515A2D6-4B43-42A3-83C1-E5B00F3CFC4C}">
-  <dimension ref="A1:K229"/>
+  <dimension ref="A1:M234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K229"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L198" sqref="L198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" customWidth="1"/>
-    <col min="6" max="6" width="55.88671875" customWidth="1"/>
-    <col min="7" max="7" width="32.21875" customWidth="1"/>
-    <col min="8" max="8" width="26.77734375" customWidth="1"/>
-    <col min="9" max="9" width="59.44140625" customWidth="1"/>
-    <col min="10" max="10" width="43" customWidth="1"/>
-    <col min="11" max="11" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" customWidth="1"/>
+    <col min="7" max="7" width="22.36328125" customWidth="1"/>
+    <col min="8" max="8" width="21.90625" customWidth="1"/>
+    <col min="9" max="9" width="59.08984375" customWidth="1"/>
+    <col min="10" max="10" width="59.453125" customWidth="1"/>
+    <col min="11" max="12" width="43" customWidth="1"/>
+    <col min="13" max="13" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1315,16 +1345,22 @@
         <v>254</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1334,7 +1370,7 @@
         <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F2" t="s">
         <v>247</v>
@@ -1346,16 +1382,16 @@
         <v>249</v>
       </c>
       <c r="I2" t="s">
-        <v>256</v>
-      </c>
-      <c r="J2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="M2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1365,7 +1401,7 @@
         <v>246</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
         <v>247</v>
@@ -1377,16 +1413,16 @@
         <v>249</v>
       </c>
       <c r="I3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="M3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1396,7 +1432,7 @@
         <v>246</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F4" t="s">
         <v>247</v>
@@ -1408,16 +1444,16 @@
         <v>249</v>
       </c>
       <c r="I4" t="s">
-        <v>256</v>
-      </c>
-      <c r="J4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="M4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1427,7 +1463,7 @@
         <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F5" t="s">
         <v>247</v>
@@ -1439,16 +1475,16 @@
         <v>249</v>
       </c>
       <c r="I5" t="s">
-        <v>256</v>
-      </c>
-      <c r="J5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="M5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1458,7 +1494,7 @@
         <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
         <v>247</v>
@@ -1470,16 +1506,16 @@
         <v>249</v>
       </c>
       <c r="I6" t="s">
-        <v>256</v>
-      </c>
-      <c r="J6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="M6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1525,7 @@
         <v>246</v>
       </c>
       <c r="E7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F7" t="s">
         <v>247</v>
@@ -1501,16 +1537,16 @@
         <v>249</v>
       </c>
       <c r="I7" t="s">
-        <v>256</v>
-      </c>
-      <c r="J7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="M7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1520,7 +1556,7 @@
         <v>246</v>
       </c>
       <c r="E8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F8" t="s">
         <v>247</v>
@@ -1532,16 +1568,16 @@
         <v>249</v>
       </c>
       <c r="I8" t="s">
-        <v>256</v>
-      </c>
-      <c r="J8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="M8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1551,7 +1587,7 @@
         <v>246</v>
       </c>
       <c r="E9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
         <v>247</v>
@@ -1563,16 +1599,16 @@
         <v>249</v>
       </c>
       <c r="I9" t="s">
-        <v>256</v>
-      </c>
-      <c r="J9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1582,7 +1618,7 @@
         <v>246</v>
       </c>
       <c r="E10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F10" t="s">
         <v>247</v>
@@ -1594,16 +1630,16 @@
         <v>249</v>
       </c>
       <c r="I10" t="s">
-        <v>256</v>
-      </c>
-      <c r="J10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1612,7 +1648,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="E11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F11" t="s">
         <v>247</v>
@@ -1623,17 +1659,17 @@
       <c r="H11" t="s">
         <v>249</v>
       </c>
-      <c r="I11" t="s">
-        <v>256</v>
-      </c>
       <c r="J11" t="s">
-        <v>258</v>
-      </c>
-      <c r="K11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L11" t="s">
+        <v>257</v>
+      </c>
+      <c r="M11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1642,7 +1678,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="E12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F12" t="s">
         <v>247</v>
@@ -1653,17 +1689,17 @@
       <c r="H12" t="s">
         <v>249</v>
       </c>
-      <c r="I12" t="s">
-        <v>256</v>
-      </c>
       <c r="J12" t="s">
-        <v>258</v>
-      </c>
-      <c r="K12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L12" t="s">
+        <v>257</v>
+      </c>
+      <c r="M12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1672,7 +1708,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="E13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F13" t="s">
         <v>247</v>
@@ -1683,17 +1719,17 @@
       <c r="H13" t="s">
         <v>249</v>
       </c>
-      <c r="I13" t="s">
-        <v>256</v>
-      </c>
       <c r="J13" t="s">
-        <v>258</v>
-      </c>
-      <c r="K13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L13" t="s">
+        <v>257</v>
+      </c>
+      <c r="M13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1702,7 +1738,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="E14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F14" t="s">
         <v>247</v>
@@ -1714,16 +1750,16 @@
         <v>249</v>
       </c>
       <c r="I14" t="s">
-        <v>256</v>
-      </c>
-      <c r="J14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1732,7 +1768,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="E15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F15" t="s">
         <v>247</v>
@@ -1744,16 +1780,16 @@
         <v>249</v>
       </c>
       <c r="I15" t="s">
-        <v>256</v>
-      </c>
-      <c r="J15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1762,7 +1798,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="E16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F16" t="s">
         <v>247</v>
@@ -1774,16 +1810,16 @@
         <v>249</v>
       </c>
       <c r="I16" t="s">
-        <v>256</v>
-      </c>
-      <c r="J16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1792,7 +1828,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="E17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F17" t="s">
         <v>247</v>
@@ -1804,16 +1840,16 @@
         <v>249</v>
       </c>
       <c r="I17" t="s">
-        <v>256</v>
-      </c>
-      <c r="J17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K17" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1822,7 +1858,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="E18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F18" t="s">
         <v>247</v>
@@ -1834,16 +1870,16 @@
         <v>249</v>
       </c>
       <c r="I18" t="s">
-        <v>256</v>
-      </c>
-      <c r="J18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1852,7 +1888,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="E19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F19" t="s">
         <v>247</v>
@@ -1864,16 +1900,16 @@
         <v>249</v>
       </c>
       <c r="I19" t="s">
-        <v>256</v>
-      </c>
-      <c r="J19" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1882,7 +1918,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="E20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F20" t="s">
         <v>247</v>
@@ -1894,16 +1930,16 @@
         <v>249</v>
       </c>
       <c r="I20" t="s">
-        <v>256</v>
-      </c>
-      <c r="J20" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K20" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1912,7 +1948,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="E21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F21" t="s">
         <v>247</v>
@@ -1924,16 +1960,16 @@
         <v>249</v>
       </c>
       <c r="I21" t="s">
-        <v>256</v>
-      </c>
-      <c r="J21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K21" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1942,7 +1978,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="E22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F22" t="s">
         <v>247</v>
@@ -1954,16 +1990,16 @@
         <v>249</v>
       </c>
       <c r="I22" t="s">
-        <v>256</v>
-      </c>
-      <c r="J22" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K22" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1972,7 +2008,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="E23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F23" t="s">
         <v>247</v>
@@ -1984,16 +2020,16 @@
         <v>249</v>
       </c>
       <c r="I23" t="s">
-        <v>256</v>
-      </c>
-      <c r="J23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2002,7 +2038,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="E24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F24" t="s">
         <v>247</v>
@@ -2014,16 +2050,16 @@
         <v>249</v>
       </c>
       <c r="I24" t="s">
-        <v>256</v>
-      </c>
-      <c r="J24" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -2032,7 +2068,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="E25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F25" t="s">
         <v>247</v>
@@ -2044,16 +2080,16 @@
         <v>249</v>
       </c>
       <c r="I25" t="s">
-        <v>256</v>
-      </c>
-      <c r="J25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K25" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2062,7 +2098,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="E26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F26" t="s">
         <v>247</v>
@@ -2074,16 +2110,16 @@
         <v>249</v>
       </c>
       <c r="I26" t="s">
-        <v>256</v>
-      </c>
-      <c r="J26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K26" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -2092,7 +2128,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="E27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F27" t="s">
         <v>247</v>
@@ -2104,16 +2140,16 @@
         <v>249</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
-      </c>
-      <c r="J27" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -2122,7 +2158,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="E28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F28" t="s">
         <v>247</v>
@@ -2134,16 +2170,16 @@
         <v>249</v>
       </c>
       <c r="I28" t="s">
-        <v>256</v>
-      </c>
-      <c r="J28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K28" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -2152,7 +2188,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="E29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F29" t="s">
         <v>247</v>
@@ -2164,16 +2200,16 @@
         <v>249</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
-      </c>
-      <c r="J29" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K29" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -2182,7 +2218,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="E30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F30" t="s">
         <v>247</v>
@@ -2194,16 +2230,16 @@
         <v>249</v>
       </c>
       <c r="I30" t="s">
-        <v>256</v>
-      </c>
-      <c r="J30" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K30" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -2212,7 +2248,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="E31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F31" t="s">
         <v>247</v>
@@ -2224,16 +2260,16 @@
         <v>249</v>
       </c>
       <c r="I31" t="s">
-        <v>256</v>
-      </c>
-      <c r="J31" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K31" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -2242,7 +2278,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="E32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F32" t="s">
         <v>247</v>
@@ -2254,16 +2290,16 @@
         <v>249</v>
       </c>
       <c r="I32" t="s">
-        <v>256</v>
-      </c>
-      <c r="J32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K32" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -2272,7 +2308,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="E33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F33" t="s">
         <v>247</v>
@@ -2284,16 +2320,16 @@
         <v>249</v>
       </c>
       <c r="I33" t="s">
-        <v>256</v>
-      </c>
-      <c r="J33" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K33" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2302,7 +2338,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="E34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F34" t="s">
         <v>247</v>
@@ -2314,16 +2350,16 @@
         <v>249</v>
       </c>
       <c r="I34" t="s">
-        <v>256</v>
-      </c>
-      <c r="J34" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K34" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -2332,7 +2368,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="E35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F35" t="s">
         <v>247</v>
@@ -2344,16 +2380,16 @@
         <v>249</v>
       </c>
       <c r="I35" t="s">
-        <v>256</v>
-      </c>
-      <c r="J35" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K35" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -2362,7 +2398,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="E36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F36" t="s">
         <v>247</v>
@@ -2374,16 +2410,16 @@
         <v>249</v>
       </c>
       <c r="I36" t="s">
-        <v>256</v>
-      </c>
-      <c r="J36" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K36" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M36" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -2392,7 +2428,7 @@
       </c>
       <c r="C37" s="2"/>
       <c r="E37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F37" t="s">
         <v>247</v>
@@ -2404,16 +2440,16 @@
         <v>249</v>
       </c>
       <c r="I37" t="s">
-        <v>256</v>
-      </c>
-      <c r="J37" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K37" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -2422,7 +2458,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="E38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F38" t="s">
         <v>247</v>
@@ -2434,16 +2470,16 @@
         <v>249</v>
       </c>
       <c r="I38" t="s">
-        <v>256</v>
-      </c>
-      <c r="J38" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -2452,7 +2488,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="E39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F39" t="s">
         <v>247</v>
@@ -2464,16 +2500,16 @@
         <v>249</v>
       </c>
       <c r="I39" t="s">
-        <v>256</v>
-      </c>
-      <c r="J39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K39" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M39" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -2482,7 +2518,7 @@
       </c>
       <c r="C40" s="2"/>
       <c r="E40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F40" t="s">
         <v>247</v>
@@ -2494,16 +2530,16 @@
         <v>249</v>
       </c>
       <c r="I40" t="s">
-        <v>256</v>
-      </c>
-      <c r="J40" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K40" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -2512,7 +2548,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="E41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F41" t="s">
         <v>247</v>
@@ -2523,17 +2559,17 @@
       <c r="H41" t="s">
         <v>249</v>
       </c>
-      <c r="I41" t="s">
-        <v>256</v>
-      </c>
       <c r="J41" t="s">
-        <v>258</v>
-      </c>
-      <c r="K41" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L41" t="s">
+        <v>257</v>
+      </c>
+      <c r="M41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,7 +2578,7 @@
       </c>
       <c r="C42" s="2"/>
       <c r="E42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F42" t="s">
         <v>247</v>
@@ -2553,17 +2589,17 @@
       <c r="H42" t="s">
         <v>249</v>
       </c>
-      <c r="I42" t="s">
-        <v>256</v>
-      </c>
       <c r="J42" t="s">
-        <v>258</v>
-      </c>
-      <c r="K42" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L42" t="s">
+        <v>257</v>
+      </c>
+      <c r="M42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -2572,7 +2608,7 @@
       </c>
       <c r="C43" s="2"/>
       <c r="E43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F43" t="s">
         <v>247</v>
@@ -2583,17 +2619,17 @@
       <c r="H43" t="s">
         <v>249</v>
       </c>
-      <c r="I43" t="s">
-        <v>256</v>
-      </c>
       <c r="J43" t="s">
-        <v>258</v>
-      </c>
-      <c r="K43" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L43" t="s">
+        <v>257</v>
+      </c>
+      <c r="M43" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -2602,7 +2638,7 @@
       </c>
       <c r="C44" s="2"/>
       <c r="E44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F44" t="s">
         <v>247</v>
@@ -2613,17 +2649,17 @@
       <c r="H44" t="s">
         <v>249</v>
       </c>
-      <c r="I44" t="s">
-        <v>256</v>
-      </c>
       <c r="J44" t="s">
-        <v>258</v>
-      </c>
-      <c r="K44" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L44" t="s">
+        <v>257</v>
+      </c>
+      <c r="M44" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -2632,7 +2668,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="E45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F45" t="s">
         <v>247</v>
@@ -2643,17 +2679,17 @@
       <c r="H45" t="s">
         <v>249</v>
       </c>
-      <c r="I45" t="s">
-        <v>256</v>
-      </c>
       <c r="J45" t="s">
-        <v>258</v>
-      </c>
-      <c r="K45" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L45" t="s">
+        <v>257</v>
+      </c>
+      <c r="M45" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -2662,7 +2698,7 @@
       </c>
       <c r="C46" s="2"/>
       <c r="E46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F46" t="s">
         <v>247</v>
@@ -2673,17 +2709,17 @@
       <c r="H46" t="s">
         <v>249</v>
       </c>
-      <c r="I46" t="s">
-        <v>256</v>
-      </c>
       <c r="J46" t="s">
-        <v>258</v>
-      </c>
-      <c r="K46" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L46" t="s">
+        <v>257</v>
+      </c>
+      <c r="M46" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -2692,7 +2728,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="E47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F47" t="s">
         <v>247</v>
@@ -2703,17 +2739,17 @@
       <c r="H47" t="s">
         <v>249</v>
       </c>
-      <c r="I47" t="s">
-        <v>256</v>
-      </c>
       <c r="J47" t="s">
-        <v>258</v>
-      </c>
-      <c r="K47" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L47" t="s">
+        <v>257</v>
+      </c>
+      <c r="M47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -2722,7 +2758,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="E48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F48" t="s">
         <v>247</v>
@@ -2733,17 +2769,17 @@
       <c r="H48" t="s">
         <v>249</v>
       </c>
-      <c r="I48" t="s">
-        <v>256</v>
-      </c>
       <c r="J48" t="s">
-        <v>258</v>
-      </c>
-      <c r="K48" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L48" t="s">
+        <v>257</v>
+      </c>
+      <c r="M48" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -2752,7 +2788,7 @@
       </c>
       <c r="C49" s="2"/>
       <c r="E49" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F49" t="s">
         <v>247</v>
@@ -2764,16 +2800,16 @@
         <v>249</v>
       </c>
       <c r="I49" t="s">
-        <v>256</v>
-      </c>
-      <c r="J49" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K49" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M49" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -2782,7 +2818,7 @@
       </c>
       <c r="C50" s="2"/>
       <c r="E50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F50" t="s">
         <v>247</v>
@@ -2794,16 +2830,16 @@
         <v>249</v>
       </c>
       <c r="I50" t="s">
-        <v>256</v>
-      </c>
-      <c r="J50" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K50" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M50" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -2812,7 +2848,7 @@
       </c>
       <c r="C51" s="2"/>
       <c r="E51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F51" t="s">
         <v>247</v>
@@ -2824,16 +2860,16 @@
         <v>249</v>
       </c>
       <c r="I51" t="s">
-        <v>256</v>
-      </c>
-      <c r="J51" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K51" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M51" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
@@ -2842,7 +2878,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="E52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F52" t="s">
         <v>247</v>
@@ -2854,16 +2890,16 @@
         <v>249</v>
       </c>
       <c r="I52" t="s">
-        <v>256</v>
-      </c>
-      <c r="J52" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K52" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -2872,7 +2908,7 @@
       </c>
       <c r="C53" s="2"/>
       <c r="E53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F53" t="s">
         <v>247</v>
@@ -2884,16 +2920,16 @@
         <v>249</v>
       </c>
       <c r="I53" t="s">
-        <v>256</v>
-      </c>
-      <c r="J53" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K53" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M53" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
@@ -2902,7 +2938,7 @@
       </c>
       <c r="C54" s="2"/>
       <c r="E54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F54" t="s">
         <v>247</v>
@@ -2914,16 +2950,16 @@
         <v>249</v>
       </c>
       <c r="I54" t="s">
-        <v>256</v>
-      </c>
-      <c r="J54" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K54" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M54" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
@@ -2932,7 +2968,7 @@
       </c>
       <c r="C55" s="2"/>
       <c r="E55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -2944,16 +2980,16 @@
         <v>249</v>
       </c>
       <c r="I55" t="s">
-        <v>256</v>
-      </c>
-      <c r="J55" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M55" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
@@ -2962,7 +2998,7 @@
       </c>
       <c r="C56" s="2"/>
       <c r="E56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F56" t="s">
         <v>247</v>
@@ -2974,16 +3010,16 @@
         <v>249</v>
       </c>
       <c r="I56" t="s">
-        <v>256</v>
-      </c>
-      <c r="J56" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K56" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M56" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
@@ -2992,7 +3028,7 @@
       </c>
       <c r="C57" s="2"/>
       <c r="E57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F57" t="s">
         <v>247</v>
@@ -3004,16 +3040,16 @@
         <v>249</v>
       </c>
       <c r="I57" t="s">
-        <v>256</v>
-      </c>
-      <c r="J57" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K57" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M57" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
@@ -3022,7 +3058,7 @@
       </c>
       <c r="C58" s="2"/>
       <c r="E58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F58" t="s">
         <v>247</v>
@@ -3034,16 +3070,16 @@
         <v>249</v>
       </c>
       <c r="I58" t="s">
-        <v>256</v>
-      </c>
-      <c r="J58" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K58" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M58" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
@@ -3052,7 +3088,7 @@
       </c>
       <c r="C59" s="2"/>
       <c r="E59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F59" t="s">
         <v>247</v>
@@ -3064,16 +3100,16 @@
         <v>249</v>
       </c>
       <c r="I59" t="s">
-        <v>256</v>
-      </c>
-      <c r="J59" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K59" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M59" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
@@ -3082,7 +3118,7 @@
       </c>
       <c r="C60" s="2"/>
       <c r="E60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F60" t="s">
         <v>247</v>
@@ -3094,16 +3130,16 @@
         <v>249</v>
       </c>
       <c r="I60" t="s">
-        <v>256</v>
-      </c>
-      <c r="J60" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K60" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M60" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -3112,7 +3148,7 @@
       </c>
       <c r="C61" s="2"/>
       <c r="E61" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F61" t="s">
         <v>247</v>
@@ -3124,16 +3160,16 @@
         <v>249</v>
       </c>
       <c r="I61" t="s">
-        <v>256</v>
-      </c>
-      <c r="J61" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K61" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M61" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
@@ -3142,7 +3178,7 @@
       </c>
       <c r="C62" s="2"/>
       <c r="E62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F62" t="s">
         <v>247</v>
@@ -3154,16 +3190,16 @@
         <v>249</v>
       </c>
       <c r="I62" t="s">
-        <v>256</v>
-      </c>
-      <c r="J62" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K62" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M62" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
@@ -3172,7 +3208,7 @@
       </c>
       <c r="C63" s="2"/>
       <c r="E63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F63" t="s">
         <v>247</v>
@@ -3184,16 +3220,16 @@
         <v>249</v>
       </c>
       <c r="I63" t="s">
-        <v>256</v>
-      </c>
-      <c r="J63" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K63" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M63" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -3202,7 +3238,7 @@
       </c>
       <c r="C64" s="2"/>
       <c r="E64" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F64" t="s">
         <v>247</v>
@@ -3214,16 +3250,16 @@
         <v>249</v>
       </c>
       <c r="I64" t="s">
-        <v>256</v>
-      </c>
-      <c r="J64" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K64" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M64" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
@@ -3232,7 +3268,7 @@
       </c>
       <c r="C65" s="2"/>
       <c r="E65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F65" t="s">
         <v>247</v>
@@ -3244,16 +3280,16 @@
         <v>249</v>
       </c>
       <c r="I65" t="s">
-        <v>256</v>
-      </c>
-      <c r="J65" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K65" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M65" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
@@ -3262,7 +3298,7 @@
       </c>
       <c r="C66" s="2"/>
       <c r="E66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F66" t="s">
         <v>247</v>
@@ -3274,16 +3310,16 @@
         <v>249</v>
       </c>
       <c r="I66" t="s">
-        <v>256</v>
-      </c>
-      <c r="J66" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K66" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M66" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
@@ -3292,7 +3328,7 @@
       </c>
       <c r="C67" s="2"/>
       <c r="E67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F67" t="s">
         <v>247</v>
@@ -3304,16 +3340,16 @@
         <v>249</v>
       </c>
       <c r="I67" t="s">
-        <v>256</v>
-      </c>
-      <c r="J67" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K67" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -3322,7 +3358,7 @@
       </c>
       <c r="C68" s="2"/>
       <c r="E68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F68" t="s">
         <v>247</v>
@@ -3334,16 +3370,16 @@
         <v>249</v>
       </c>
       <c r="I68" t="s">
-        <v>256</v>
-      </c>
-      <c r="J68" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K68" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M68" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -3352,7 +3388,7 @@
       </c>
       <c r="C69" s="2"/>
       <c r="E69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F69" t="s">
         <v>247</v>
@@ -3364,25 +3400,25 @@
         <v>249</v>
       </c>
       <c r="I69" t="s">
-        <v>256</v>
-      </c>
-      <c r="J69" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K69" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M69" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C70" s="2"/>
       <c r="E70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F70" t="s">
         <v>247</v>
@@ -3393,17 +3429,17 @@
       <c r="H70" t="s">
         <v>249</v>
       </c>
-      <c r="I70" t="s">
-        <v>256</v>
-      </c>
       <c r="J70" t="s">
-        <v>258</v>
-      </c>
-      <c r="K70" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L70" t="s">
+        <v>257</v>
+      </c>
+      <c r="M70" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
@@ -3412,7 +3448,7 @@
       </c>
       <c r="C71" s="2"/>
       <c r="E71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F71" t="s">
         <v>247</v>
@@ -3423,17 +3459,17 @@
       <c r="H71" t="s">
         <v>249</v>
       </c>
-      <c r="I71" t="s">
-        <v>256</v>
-      </c>
       <c r="J71" t="s">
-        <v>258</v>
-      </c>
-      <c r="K71" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L71" t="s">
+        <v>257</v>
+      </c>
+      <c r="M71" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>78</v>
       </c>
@@ -3442,7 +3478,7 @@
       </c>
       <c r="C72" s="2"/>
       <c r="E72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F72" t="s">
         <v>247</v>
@@ -3453,17 +3489,17 @@
       <c r="H72" t="s">
         <v>249</v>
       </c>
-      <c r="I72" t="s">
-        <v>256</v>
-      </c>
       <c r="J72" t="s">
-        <v>258</v>
-      </c>
-      <c r="K72" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L72" t="s">
+        <v>257</v>
+      </c>
+      <c r="M72" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>80</v>
       </c>
@@ -3472,7 +3508,7 @@
       </c>
       <c r="C73" s="2"/>
       <c r="E73" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F73" t="s">
         <v>247</v>
@@ -3483,17 +3519,17 @@
       <c r="H73" t="s">
         <v>249</v>
       </c>
-      <c r="I73" t="s">
-        <v>256</v>
-      </c>
       <c r="J73" t="s">
-        <v>258</v>
-      </c>
-      <c r="K73" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L73" t="s">
+        <v>257</v>
+      </c>
+      <c r="M73" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>81</v>
       </c>
@@ -3502,7 +3538,7 @@
       </c>
       <c r="C74" s="2"/>
       <c r="E74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F74" t="s">
         <v>247</v>
@@ -3513,17 +3549,17 @@
       <c r="H74" t="s">
         <v>249</v>
       </c>
-      <c r="I74" t="s">
-        <v>256</v>
-      </c>
       <c r="J74" t="s">
-        <v>258</v>
-      </c>
-      <c r="K74" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L74" t="s">
+        <v>257</v>
+      </c>
+      <c r="M74" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
@@ -3532,7 +3568,7 @@
       </c>
       <c r="C75" s="2"/>
       <c r="E75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F75" t="s">
         <v>247</v>
@@ -3543,17 +3579,17 @@
       <c r="H75" t="s">
         <v>249</v>
       </c>
-      <c r="I75" t="s">
-        <v>256</v>
-      </c>
       <c r="J75" t="s">
-        <v>258</v>
-      </c>
-      <c r="K75" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L75" t="s">
+        <v>257</v>
+      </c>
+      <c r="M75" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>83</v>
       </c>
@@ -3562,7 +3598,7 @@
       </c>
       <c r="C76" s="2"/>
       <c r="E76" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F76" t="s">
         <v>247</v>
@@ -3573,17 +3609,17 @@
       <c r="H76" t="s">
         <v>249</v>
       </c>
-      <c r="I76" t="s">
-        <v>256</v>
-      </c>
       <c r="J76" t="s">
-        <v>258</v>
-      </c>
-      <c r="K76" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L76" t="s">
+        <v>257</v>
+      </c>
+      <c r="M76" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>84</v>
       </c>
@@ -3592,7 +3628,7 @@
       </c>
       <c r="C77" s="2"/>
       <c r="E77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F77" t="s">
         <v>247</v>
@@ -3603,17 +3639,17 @@
       <c r="H77" t="s">
         <v>249</v>
       </c>
-      <c r="I77" t="s">
-        <v>256</v>
-      </c>
       <c r="J77" t="s">
-        <v>258</v>
-      </c>
-      <c r="K77" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L77" t="s">
+        <v>257</v>
+      </c>
+      <c r="M77" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>85</v>
       </c>
@@ -3622,7 +3658,7 @@
       </c>
       <c r="C78" s="2"/>
       <c r="E78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F78" t="s">
         <v>247</v>
@@ -3633,17 +3669,17 @@
       <c r="H78" t="s">
         <v>249</v>
       </c>
-      <c r="I78" t="s">
-        <v>256</v>
-      </c>
       <c r="J78" t="s">
-        <v>258</v>
-      </c>
-      <c r="K78" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L78" t="s">
+        <v>257</v>
+      </c>
+      <c r="M78" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>86</v>
       </c>
@@ -3652,7 +3688,7 @@
       </c>
       <c r="C79" s="2"/>
       <c r="E79" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F79" t="s">
         <v>247</v>
@@ -3664,16 +3700,16 @@
         <v>249</v>
       </c>
       <c r="I79" t="s">
-        <v>256</v>
-      </c>
-      <c r="J79" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K79" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M79" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>87</v>
       </c>
@@ -3682,7 +3718,7 @@
       </c>
       <c r="C80" s="2"/>
       <c r="E80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F80" t="s">
         <v>247</v>
@@ -3694,16 +3730,16 @@
         <v>249</v>
       </c>
       <c r="I80" t="s">
-        <v>256</v>
-      </c>
-      <c r="J80" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K80" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M80" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>88</v>
       </c>
@@ -3712,7 +3748,7 @@
       </c>
       <c r="C81" s="2"/>
       <c r="E81" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F81" t="s">
         <v>247</v>
@@ -3724,16 +3760,16 @@
         <v>249</v>
       </c>
       <c r="I81" t="s">
-        <v>256</v>
-      </c>
-      <c r="J81" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K81" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M81" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>89</v>
       </c>
@@ -3742,7 +3778,7 @@
       </c>
       <c r="C82" s="2"/>
       <c r="E82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F82" t="s">
         <v>247</v>
@@ -3754,16 +3790,16 @@
         <v>249</v>
       </c>
       <c r="I82" t="s">
-        <v>256</v>
-      </c>
-      <c r="J82" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K82" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M82" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>90</v>
       </c>
@@ -3772,7 +3808,7 @@
       </c>
       <c r="C83" s="2"/>
       <c r="E83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F83" t="s">
         <v>247</v>
@@ -3784,16 +3820,16 @@
         <v>249</v>
       </c>
       <c r="I83" t="s">
-        <v>256</v>
-      </c>
-      <c r="J83" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K83" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M83" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>91</v>
       </c>
@@ -3802,7 +3838,7 @@
       </c>
       <c r="C84" s="2"/>
       <c r="E84" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F84" t="s">
         <v>247</v>
@@ -3814,16 +3850,16 @@
         <v>249</v>
       </c>
       <c r="I84" t="s">
-        <v>256</v>
-      </c>
-      <c r="J84" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K84" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M84" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>92</v>
       </c>
@@ -3832,7 +3868,7 @@
       </c>
       <c r="C85" s="2"/>
       <c r="E85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F85" t="s">
         <v>247</v>
@@ -3844,16 +3880,16 @@
         <v>249</v>
       </c>
       <c r="I85" t="s">
-        <v>256</v>
-      </c>
-      <c r="J85" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K85" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M85" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>93</v>
       </c>
@@ -3862,7 +3898,7 @@
       </c>
       <c r="C86" s="2"/>
       <c r="E86" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F86" t="s">
         <v>247</v>
@@ -3874,16 +3910,16 @@
         <v>249</v>
       </c>
       <c r="I86" t="s">
-        <v>256</v>
-      </c>
-      <c r="J86" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K86" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M86" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>94</v>
       </c>
@@ -3892,7 +3928,7 @@
       </c>
       <c r="C87" s="2"/>
       <c r="E87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F87" t="s">
         <v>247</v>
@@ -3904,16 +3940,16 @@
         <v>249</v>
       </c>
       <c r="I87" t="s">
-        <v>256</v>
-      </c>
-      <c r="J87" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K87" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M87" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>95</v>
       </c>
@@ -3922,7 +3958,7 @@
       </c>
       <c r="C88" s="2"/>
       <c r="E88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F88" t="s">
         <v>247</v>
@@ -3934,16 +3970,16 @@
         <v>249</v>
       </c>
       <c r="I88" t="s">
-        <v>256</v>
-      </c>
-      <c r="J88" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K88" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M88" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>96</v>
       </c>
@@ -3952,7 +3988,7 @@
       </c>
       <c r="C89" s="2"/>
       <c r="E89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F89" t="s">
         <v>247</v>
@@ -3964,16 +4000,16 @@
         <v>249</v>
       </c>
       <c r="I89" t="s">
-        <v>256</v>
-      </c>
-      <c r="J89" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K89" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M89" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>97</v>
       </c>
@@ -3982,7 +4018,7 @@
       </c>
       <c r="C90" s="2"/>
       <c r="E90" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F90" t="s">
         <v>247</v>
@@ -3994,16 +4030,16 @@
         <v>249</v>
       </c>
       <c r="I90" t="s">
-        <v>256</v>
-      </c>
-      <c r="J90" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K90" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M90" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>98</v>
       </c>
@@ -4012,7 +4048,7 @@
       </c>
       <c r="C91" s="2"/>
       <c r="E91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F91" t="s">
         <v>247</v>
@@ -4024,16 +4060,16 @@
         <v>249</v>
       </c>
       <c r="I91" t="s">
-        <v>256</v>
-      </c>
-      <c r="J91" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K91" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M91" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>99</v>
       </c>
@@ -4042,7 +4078,7 @@
       </c>
       <c r="C92" s="2"/>
       <c r="E92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F92" t="s">
         <v>247</v>
@@ -4054,16 +4090,16 @@
         <v>249</v>
       </c>
       <c r="I92" t="s">
-        <v>256</v>
-      </c>
-      <c r="J92" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K92" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M92" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>100</v>
       </c>
@@ -4072,7 +4108,7 @@
       </c>
       <c r="C93" s="2"/>
       <c r="E93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F93" t="s">
         <v>247</v>
@@ -4084,16 +4120,16 @@
         <v>249</v>
       </c>
       <c r="I93" t="s">
-        <v>256</v>
-      </c>
-      <c r="J93" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K93" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M93" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>101</v>
       </c>
@@ -4102,7 +4138,7 @@
       </c>
       <c r="C94" s="2"/>
       <c r="E94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F94" t="s">
         <v>247</v>
@@ -4114,16 +4150,16 @@
         <v>249</v>
       </c>
       <c r="I94" t="s">
-        <v>256</v>
-      </c>
-      <c r="J94" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K94" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M94" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>102</v>
       </c>
@@ -4132,7 +4168,7 @@
       </c>
       <c r="C95" s="2"/>
       <c r="E95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F95" t="s">
         <v>247</v>
@@ -4144,16 +4180,16 @@
         <v>249</v>
       </c>
       <c r="I95" t="s">
-        <v>256</v>
-      </c>
-      <c r="J95" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K95" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M95" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>103</v>
       </c>
@@ -4162,7 +4198,7 @@
       </c>
       <c r="C96" s="2"/>
       <c r="E96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F96" t="s">
         <v>247</v>
@@ -4174,25 +4210,25 @@
         <v>249</v>
       </c>
       <c r="I96" t="s">
-        <v>256</v>
-      </c>
-      <c r="J96" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K96" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M96" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C97" s="2"/>
       <c r="E97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F97" t="s">
         <v>247</v>
@@ -4203,26 +4239,26 @@
       <c r="H97" t="s">
         <v>249</v>
       </c>
-      <c r="I97" t="s">
-        <v>256</v>
-      </c>
       <c r="J97" t="s">
-        <v>258</v>
-      </c>
-      <c r="K97" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L97" t="s">
+        <v>257</v>
+      </c>
+      <c r="M97" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C98" s="2"/>
       <c r="E98" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F98" t="s">
         <v>247</v>
@@ -4233,26 +4269,26 @@
       <c r="H98" t="s">
         <v>249</v>
       </c>
-      <c r="I98" t="s">
-        <v>256</v>
-      </c>
       <c r="J98" t="s">
-        <v>258</v>
-      </c>
-      <c r="K98" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L98" t="s">
+        <v>257</v>
+      </c>
+      <c r="M98" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C99" s="2"/>
       <c r="E99" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F99" t="s">
         <v>247</v>
@@ -4263,26 +4299,26 @@
       <c r="H99" t="s">
         <v>249</v>
       </c>
-      <c r="I99" t="s">
-        <v>256</v>
-      </c>
       <c r="J99" t="s">
-        <v>258</v>
-      </c>
-      <c r="K99" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L99" t="s">
+        <v>257</v>
+      </c>
+      <c r="M99" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C100" s="2"/>
       <c r="E100" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F100" t="s">
         <v>247</v>
@@ -4293,26 +4329,26 @@
       <c r="H100" t="s">
         <v>249</v>
       </c>
-      <c r="I100" t="s">
-        <v>256</v>
-      </c>
       <c r="J100" t="s">
-        <v>258</v>
-      </c>
-      <c r="K100" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L100" t="s">
+        <v>257</v>
+      </c>
+      <c r="M100" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C101" s="2"/>
       <c r="E101" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F101" t="s">
         <v>247</v>
@@ -4323,26 +4359,26 @@
       <c r="H101" t="s">
         <v>249</v>
       </c>
-      <c r="I101" t="s">
-        <v>256</v>
-      </c>
       <c r="J101" t="s">
-        <v>258</v>
-      </c>
-      <c r="K101" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L101" t="s">
+        <v>257</v>
+      </c>
+      <c r="M101" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C102" s="2"/>
       <c r="E102" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F102" t="s">
         <v>247</v>
@@ -4353,26 +4389,26 @@
       <c r="H102" t="s">
         <v>249</v>
       </c>
-      <c r="I102" t="s">
-        <v>256</v>
-      </c>
       <c r="J102" t="s">
-        <v>258</v>
-      </c>
-      <c r="K102" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L102" t="s">
+        <v>257</v>
+      </c>
+      <c r="M102" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C103" s="2"/>
       <c r="E103" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F103" t="s">
         <v>247</v>
@@ -4383,26 +4419,26 @@
       <c r="H103" t="s">
         <v>249</v>
       </c>
-      <c r="I103" t="s">
-        <v>256</v>
-      </c>
       <c r="J103" t="s">
-        <v>258</v>
-      </c>
-      <c r="K103" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L103" t="s">
+        <v>257</v>
+      </c>
+      <c r="M103" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C104" s="2"/>
       <c r="E104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F104" t="s">
         <v>247</v>
@@ -4414,25 +4450,25 @@
         <v>249</v>
       </c>
       <c r="I104" t="s">
-        <v>256</v>
-      </c>
-      <c r="J104" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K104" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M104" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C105" s="2"/>
       <c r="E105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F105" t="s">
         <v>247</v>
@@ -4444,25 +4480,25 @@
         <v>249</v>
       </c>
       <c r="I105" t="s">
-        <v>256</v>
-      </c>
-      <c r="J105" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K105" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M105" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C106" s="2"/>
       <c r="E106" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F106" t="s">
         <v>247</v>
@@ -4474,25 +4510,25 @@
         <v>249</v>
       </c>
       <c r="I106" t="s">
-        <v>256</v>
-      </c>
-      <c r="J106" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K106" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M106" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C107" s="2"/>
       <c r="E107" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F107" t="s">
         <v>247</v>
@@ -4504,25 +4540,25 @@
         <v>249</v>
       </c>
       <c r="I107" t="s">
-        <v>256</v>
-      </c>
-      <c r="J107" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K107" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M107" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C108" s="2"/>
       <c r="E108" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F108" t="s">
         <v>247</v>
@@ -4534,25 +4570,25 @@
         <v>249</v>
       </c>
       <c r="I108" t="s">
-        <v>256</v>
-      </c>
-      <c r="J108" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K108" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M108" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C109" s="2"/>
       <c r="E109" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F109" t="s">
         <v>247</v>
@@ -4564,25 +4600,25 @@
         <v>249</v>
       </c>
       <c r="I109" t="s">
-        <v>256</v>
-      </c>
-      <c r="J109" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K109" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M109" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C110" s="2"/>
       <c r="E110" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F110" t="s">
         <v>247</v>
@@ -4594,25 +4630,25 @@
         <v>249</v>
       </c>
       <c r="I110" t="s">
-        <v>256</v>
-      </c>
-      <c r="J110" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K110" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M110" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C111" s="2"/>
       <c r="E111" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F111" t="s">
         <v>247</v>
@@ -4624,25 +4660,25 @@
         <v>249</v>
       </c>
       <c r="I111" t="s">
-        <v>256</v>
-      </c>
-      <c r="J111" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K111" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M111" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C112" s="2"/>
       <c r="E112" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F112" t="s">
         <v>247</v>
@@ -4654,25 +4690,25 @@
         <v>249</v>
       </c>
       <c r="I112" t="s">
-        <v>256</v>
-      </c>
-      <c r="J112" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K112" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M112" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C113" s="2"/>
       <c r="E113" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F113" t="s">
         <v>247</v>
@@ -4684,25 +4720,25 @@
         <v>249</v>
       </c>
       <c r="I113" t="s">
-        <v>256</v>
-      </c>
-      <c r="J113" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K113" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M113" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C114" s="2"/>
       <c r="E114" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F114" t="s">
         <v>247</v>
@@ -4714,25 +4750,25 @@
         <v>249</v>
       </c>
       <c r="I114" t="s">
-        <v>256</v>
-      </c>
-      <c r="J114" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K114" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M114" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C115" s="2"/>
       <c r="E115" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F115" t="s">
         <v>247</v>
@@ -4744,25 +4780,25 @@
         <v>249</v>
       </c>
       <c r="I115" t="s">
-        <v>256</v>
-      </c>
-      <c r="J115" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K115" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M115" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C116" s="2"/>
       <c r="E116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F116" t="s">
         <v>247</v>
@@ -4774,25 +4810,25 @@
         <v>249</v>
       </c>
       <c r="I116" t="s">
-        <v>256</v>
-      </c>
-      <c r="J116" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K116" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M116" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C117" s="2"/>
       <c r="E117" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F117" t="s">
         <v>247</v>
@@ -4804,25 +4840,25 @@
         <v>249</v>
       </c>
       <c r="I117" t="s">
-        <v>256</v>
-      </c>
-      <c r="J117" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K117" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M117" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C118" s="2"/>
       <c r="E118" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F118" t="s">
         <v>247</v>
@@ -4834,25 +4870,25 @@
         <v>249</v>
       </c>
       <c r="I118" t="s">
-        <v>256</v>
-      </c>
-      <c r="J118" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K118" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M118" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C119" s="2"/>
       <c r="E119" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F119" t="s">
         <v>247</v>
@@ -4864,25 +4900,25 @@
         <v>249</v>
       </c>
       <c r="I119" t="s">
-        <v>256</v>
-      </c>
-      <c r="J119" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K119" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M119" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C120" s="2"/>
       <c r="E120" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F120" t="s">
         <v>247</v>
@@ -4894,25 +4930,25 @@
         <v>249</v>
       </c>
       <c r="I120" t="s">
-        <v>256</v>
-      </c>
-      <c r="J120" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K120" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M120" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C121" s="2"/>
       <c r="E121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F121" t="s">
         <v>247</v>
@@ -4924,25 +4960,25 @@
         <v>249</v>
       </c>
       <c r="I121" t="s">
-        <v>256</v>
-      </c>
-      <c r="J121" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K121" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M121" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C122" s="2"/>
       <c r="E122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F122" t="s">
         <v>247</v>
@@ -4954,25 +4990,25 @@
         <v>249</v>
       </c>
       <c r="I122" t="s">
-        <v>256</v>
-      </c>
-      <c r="J122" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K122" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M122" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C123" s="2"/>
       <c r="E123" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F123" t="s">
         <v>247</v>
@@ -4984,16 +5020,16 @@
         <v>249</v>
       </c>
       <c r="I123" t="s">
-        <v>256</v>
-      </c>
-      <c r="J123" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K123" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M123" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>131</v>
       </c>
@@ -5002,7 +5038,7 @@
       </c>
       <c r="C124" s="2"/>
       <c r="E124" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F124" t="s">
         <v>247</v>
@@ -5013,17 +5049,17 @@
       <c r="H124" t="s">
         <v>249</v>
       </c>
-      <c r="I124" t="s">
-        <v>256</v>
-      </c>
       <c r="J124" t="s">
-        <v>258</v>
-      </c>
-      <c r="K124" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L124" t="s">
+        <v>257</v>
+      </c>
+      <c r="M124" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>133</v>
       </c>
@@ -5032,7 +5068,7 @@
       </c>
       <c r="C125" s="2"/>
       <c r="E125" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F125" t="s">
         <v>247</v>
@@ -5044,16 +5080,16 @@
         <v>249</v>
       </c>
       <c r="I125" t="s">
-        <v>256</v>
-      </c>
-      <c r="J125" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K125" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M125" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>135</v>
       </c>
@@ -5062,7 +5098,7 @@
       </c>
       <c r="C126" s="2"/>
       <c r="E126" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F126" t="s">
         <v>247</v>
@@ -5074,16 +5110,16 @@
         <v>249</v>
       </c>
       <c r="I126" t="s">
-        <v>256</v>
-      </c>
-      <c r="J126" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K126" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M126" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>136</v>
       </c>
@@ -5092,7 +5128,7 @@
       </c>
       <c r="C127" s="2"/>
       <c r="E127" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F127" t="s">
         <v>247</v>
@@ -5104,16 +5140,16 @@
         <v>249</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
-      </c>
-      <c r="J127" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K127" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M127" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>137</v>
       </c>
@@ -5122,7 +5158,7 @@
       </c>
       <c r="C128" s="2"/>
       <c r="E128" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F128" t="s">
         <v>247</v>
@@ -5134,16 +5170,16 @@
         <v>249</v>
       </c>
       <c r="I128" t="s">
-        <v>256</v>
-      </c>
-      <c r="J128" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K128" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M128" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>138</v>
       </c>
@@ -5152,7 +5188,7 @@
       </c>
       <c r="C129" s="2"/>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F129" t="s">
         <v>247</v>
@@ -5164,16 +5200,16 @@
         <v>249</v>
       </c>
       <c r="I129" t="s">
-        <v>256</v>
-      </c>
-      <c r="J129" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K129" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M129" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>139</v>
       </c>
@@ -5182,7 +5218,7 @@
       </c>
       <c r="C130" s="2"/>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F130" t="s">
         <v>247</v>
@@ -5194,16 +5230,16 @@
         <v>249</v>
       </c>
       <c r="I130" t="s">
-        <v>256</v>
-      </c>
-      <c r="J130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K130" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M130" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>140</v>
       </c>
@@ -5212,7 +5248,7 @@
       </c>
       <c r="C131" s="2"/>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
         <v>247</v>
@@ -5224,16 +5260,16 @@
         <v>249</v>
       </c>
       <c r="I131" t="s">
-        <v>256</v>
-      </c>
-      <c r="J131" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K131" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M131" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>141</v>
       </c>
@@ -5242,7 +5278,7 @@
       </c>
       <c r="C132" s="2"/>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
         <v>247</v>
@@ -5254,16 +5290,16 @@
         <v>249</v>
       </c>
       <c r="I132" t="s">
-        <v>256</v>
-      </c>
-      <c r="J132" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K132" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M132" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>142</v>
       </c>
@@ -5272,7 +5308,7 @@
       </c>
       <c r="C133" s="2"/>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
         <v>247</v>
@@ -5284,16 +5320,16 @@
         <v>249</v>
       </c>
       <c r="I133" t="s">
-        <v>256</v>
-      </c>
-      <c r="J133" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K133" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>143</v>
       </c>
@@ -5302,7 +5338,7 @@
       </c>
       <c r="C134" s="2"/>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
         <v>247</v>
@@ -5314,16 +5350,16 @@
         <v>249</v>
       </c>
       <c r="I134" t="s">
-        <v>256</v>
-      </c>
-      <c r="J134" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K134" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M134" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>144</v>
       </c>
@@ -5332,7 +5368,7 @@
       </c>
       <c r="C135" s="2"/>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F135" t="s">
         <v>247</v>
@@ -5344,16 +5380,16 @@
         <v>249</v>
       </c>
       <c r="I135" t="s">
-        <v>256</v>
-      </c>
-      <c r="J135" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K135" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M135" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>145</v>
       </c>
@@ -5362,7 +5398,7 @@
       </c>
       <c r="C136" s="2"/>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F136" t="s">
         <v>247</v>
@@ -5374,16 +5410,16 @@
         <v>249</v>
       </c>
       <c r="I136" t="s">
-        <v>256</v>
-      </c>
-      <c r="J136" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K136" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M136" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>146</v>
       </c>
@@ -5392,7 +5428,7 @@
       </c>
       <c r="C137" s="2"/>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F137" t="s">
         <v>247</v>
@@ -5404,16 +5440,16 @@
         <v>249</v>
       </c>
       <c r="I137" t="s">
-        <v>256</v>
-      </c>
-      <c r="J137" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K137" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M137" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>148</v>
       </c>
@@ -5422,7 +5458,7 @@
       </c>
       <c r="C138" s="2"/>
       <c r="E138" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F138" t="s">
         <v>247</v>
@@ -5434,16 +5470,16 @@
         <v>249</v>
       </c>
       <c r="I138" t="s">
-        <v>256</v>
-      </c>
-      <c r="J138" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K138" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M138" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>149</v>
       </c>
@@ -5452,7 +5488,7 @@
       </c>
       <c r="C139" s="2"/>
       <c r="E139" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F139" t="s">
         <v>247</v>
@@ -5464,16 +5500,16 @@
         <v>249</v>
       </c>
       <c r="I139" t="s">
-        <v>256</v>
-      </c>
-      <c r="J139" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K139" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M139" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>150</v>
       </c>
@@ -5482,7 +5518,7 @@
       </c>
       <c r="C140" s="2"/>
       <c r="E140" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F140" t="s">
         <v>247</v>
@@ -5494,16 +5530,16 @@
         <v>249</v>
       </c>
       <c r="I140" t="s">
-        <v>256</v>
-      </c>
-      <c r="J140" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K140" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M140" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>151</v>
       </c>
@@ -5512,7 +5548,7 @@
       </c>
       <c r="C141" s="2"/>
       <c r="E141" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F141" t="s">
         <v>247</v>
@@ -5524,16 +5560,16 @@
         <v>249</v>
       </c>
       <c r="I141" t="s">
-        <v>256</v>
-      </c>
-      <c r="J141" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K141" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M141" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>152</v>
       </c>
@@ -5542,7 +5578,7 @@
       </c>
       <c r="C142" s="2"/>
       <c r="E142" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F142" t="s">
         <v>247</v>
@@ -5554,16 +5590,16 @@
         <v>249</v>
       </c>
       <c r="I142" t="s">
-        <v>256</v>
-      </c>
-      <c r="J142" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K142" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M142" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>153</v>
       </c>
@@ -5572,7 +5608,7 @@
       </c>
       <c r="C143" s="2"/>
       <c r="E143" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F143" t="s">
         <v>247</v>
@@ -5584,16 +5620,16 @@
         <v>249</v>
       </c>
       <c r="I143" t="s">
-        <v>256</v>
-      </c>
-      <c r="J143" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K143" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M143" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>154</v>
       </c>
@@ -5602,7 +5638,7 @@
       </c>
       <c r="C144" s="2"/>
       <c r="E144" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F144" t="s">
         <v>247</v>
@@ -5614,16 +5650,16 @@
         <v>249</v>
       </c>
       <c r="I144" t="s">
-        <v>256</v>
-      </c>
-      <c r="J144" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K144" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M144" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>155</v>
       </c>
@@ -5632,7 +5668,7 @@
       </c>
       <c r="C145" s="2"/>
       <c r="E145" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F145" t="s">
         <v>247</v>
@@ -5644,16 +5680,16 @@
         <v>249</v>
       </c>
       <c r="I145" t="s">
-        <v>256</v>
-      </c>
-      <c r="J145" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K145" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M145" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>156</v>
       </c>
@@ -5662,7 +5698,7 @@
       </c>
       <c r="C146" s="2"/>
       <c r="E146" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F146" t="s">
         <v>247</v>
@@ -5674,16 +5710,16 @@
         <v>249</v>
       </c>
       <c r="I146" t="s">
-        <v>256</v>
-      </c>
-      <c r="J146" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K146" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M146" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>157</v>
       </c>
@@ -5692,7 +5728,7 @@
       </c>
       <c r="C147" s="2"/>
       <c r="E147" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F147" t="s">
         <v>247</v>
@@ -5704,16 +5740,16 @@
         <v>249</v>
       </c>
       <c r="I147" t="s">
-        <v>256</v>
-      </c>
-      <c r="J147" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K147" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M147" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>159</v>
       </c>
@@ -5722,7 +5758,7 @@
       </c>
       <c r="C148" s="2"/>
       <c r="E148" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F148" t="s">
         <v>247</v>
@@ -5734,16 +5770,16 @@
         <v>249</v>
       </c>
       <c r="I148" t="s">
-        <v>256</v>
-      </c>
-      <c r="J148" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K148" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M148" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>160</v>
       </c>
@@ -5752,7 +5788,7 @@
       </c>
       <c r="C149" s="2"/>
       <c r="E149" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F149" t="s">
         <v>247</v>
@@ -5764,16 +5800,16 @@
         <v>249</v>
       </c>
       <c r="I149" t="s">
-        <v>256</v>
-      </c>
-      <c r="J149" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K149" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M149" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>161</v>
       </c>
@@ -5782,7 +5818,7 @@
       </c>
       <c r="C150" s="2"/>
       <c r="E150" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F150" t="s">
         <v>247</v>
@@ -5794,16 +5830,16 @@
         <v>249</v>
       </c>
       <c r="I150" t="s">
-        <v>256</v>
-      </c>
-      <c r="J150" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K150" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M150" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>162</v>
       </c>
@@ -5812,7 +5848,7 @@
       </c>
       <c r="C151" s="2"/>
       <c r="E151" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F151" t="s">
         <v>247</v>
@@ -5824,16 +5860,16 @@
         <v>249</v>
       </c>
       <c r="I151" t="s">
-        <v>256</v>
-      </c>
-      <c r="J151" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K151" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M151" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>163</v>
       </c>
@@ -5842,7 +5878,7 @@
       </c>
       <c r="C152" s="2"/>
       <c r="E152" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F152" t="s">
         <v>247</v>
@@ -5854,16 +5890,16 @@
         <v>249</v>
       </c>
       <c r="I152" t="s">
-        <v>256</v>
-      </c>
-      <c r="J152" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K152" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M152" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>164</v>
       </c>
@@ -5872,7 +5908,7 @@
       </c>
       <c r="C153" s="2"/>
       <c r="E153" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F153" t="s">
         <v>247</v>
@@ -5884,16 +5920,16 @@
         <v>249</v>
       </c>
       <c r="I153" t="s">
-        <v>256</v>
-      </c>
-      <c r="J153" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K153" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M153" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>165</v>
       </c>
@@ -5902,7 +5938,7 @@
       </c>
       <c r="C154" s="2"/>
       <c r="E154" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F154" t="s">
         <v>247</v>
@@ -5914,16 +5950,16 @@
         <v>249</v>
       </c>
       <c r="I154" t="s">
-        <v>256</v>
-      </c>
-      <c r="J154" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K154" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M154" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>166</v>
       </c>
@@ -5932,7 +5968,7 @@
       </c>
       <c r="C155" s="2"/>
       <c r="E155" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F155" t="s">
         <v>247</v>
@@ -5944,16 +5980,16 @@
         <v>249</v>
       </c>
       <c r="I155" t="s">
-        <v>256</v>
-      </c>
-      <c r="J155" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K155" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M155" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>167</v>
       </c>
@@ -5962,7 +5998,7 @@
       </c>
       <c r="C156" s="2"/>
       <c r="E156" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F156" t="s">
         <v>247</v>
@@ -5974,16 +6010,16 @@
         <v>249</v>
       </c>
       <c r="I156" t="s">
-        <v>256</v>
-      </c>
-      <c r="J156" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K156" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M156" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>168</v>
       </c>
@@ -5992,7 +6028,7 @@
       </c>
       <c r="C157" s="2"/>
       <c r="E157" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F157" t="s">
         <v>247</v>
@@ -6004,16 +6040,16 @@
         <v>249</v>
       </c>
       <c r="I157" t="s">
-        <v>256</v>
-      </c>
-      <c r="J157" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K157" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M157" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>169</v>
       </c>
@@ -6022,7 +6058,7 @@
       </c>
       <c r="C158" s="2"/>
       <c r="E158" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F158" t="s">
         <v>247</v>
@@ -6034,16 +6070,16 @@
         <v>249</v>
       </c>
       <c r="I158" t="s">
-        <v>256</v>
-      </c>
-      <c r="J158" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K158" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M158" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>170</v>
       </c>
@@ -6052,7 +6088,7 @@
       </c>
       <c r="C159" s="2"/>
       <c r="E159" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F159" t="s">
         <v>247</v>
@@ -6064,16 +6100,16 @@
         <v>249</v>
       </c>
       <c r="I159" t="s">
-        <v>256</v>
-      </c>
-      <c r="J159" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K159" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M159" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>171</v>
       </c>
@@ -6082,7 +6118,7 @@
       </c>
       <c r="C160" s="2"/>
       <c r="E160" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F160" t="s">
         <v>247</v>
@@ -6094,16 +6130,16 @@
         <v>249</v>
       </c>
       <c r="I160" t="s">
-        <v>256</v>
-      </c>
-      <c r="J160" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K160" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M160" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
@@ -6112,7 +6148,7 @@
       </c>
       <c r="C161" s="2"/>
       <c r="E161" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F161" t="s">
         <v>247</v>
@@ -6124,16 +6160,16 @@
         <v>249</v>
       </c>
       <c r="I161" t="s">
-        <v>256</v>
-      </c>
-      <c r="J161" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K161" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M161" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
@@ -6142,7 +6178,7 @@
       </c>
       <c r="C162" s="2"/>
       <c r="E162" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F162" t="s">
         <v>247</v>
@@ -6154,16 +6190,16 @@
         <v>249</v>
       </c>
       <c r="I162" t="s">
-        <v>256</v>
-      </c>
-      <c r="J162" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K162" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M162" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
@@ -6172,7 +6208,7 @@
       </c>
       <c r="C163" s="2"/>
       <c r="E163" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F163" t="s">
         <v>247</v>
@@ -6184,16 +6220,16 @@
         <v>249</v>
       </c>
       <c r="I163" t="s">
-        <v>256</v>
-      </c>
-      <c r="J163" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K163" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M163" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
@@ -6202,7 +6238,7 @@
       </c>
       <c r="C164" s="2"/>
       <c r="E164" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F164" t="s">
         <v>247</v>
@@ -6214,16 +6250,16 @@
         <v>249</v>
       </c>
       <c r="I164" t="s">
-        <v>256</v>
-      </c>
-      <c r="J164" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K164" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M164" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
@@ -6232,7 +6268,7 @@
       </c>
       <c r="C165" s="2"/>
       <c r="E165" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F165" t="s">
         <v>247</v>
@@ -6244,16 +6280,16 @@
         <v>249</v>
       </c>
       <c r="I165" t="s">
-        <v>256</v>
-      </c>
-      <c r="J165" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K165" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M165" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
@@ -6262,7 +6298,7 @@
       </c>
       <c r="C166" s="2"/>
       <c r="E166" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F166" t="s">
         <v>247</v>
@@ -6274,16 +6310,16 @@
         <v>249</v>
       </c>
       <c r="I166" t="s">
-        <v>256</v>
-      </c>
-      <c r="J166" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K166" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M166" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
@@ -6292,7 +6328,7 @@
       </c>
       <c r="C167" s="2"/>
       <c r="E167" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F167" t="s">
         <v>247</v>
@@ -6304,16 +6340,16 @@
         <v>249</v>
       </c>
       <c r="I167" t="s">
-        <v>256</v>
-      </c>
-      <c r="J167" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K167" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M167" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
@@ -6322,7 +6358,7 @@
       </c>
       <c r="C168" s="2"/>
       <c r="E168" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F168" t="s">
         <v>247</v>
@@ -6334,16 +6370,16 @@
         <v>249</v>
       </c>
       <c r="I168" t="s">
-        <v>256</v>
-      </c>
-      <c r="J168" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K168" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M168" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
@@ -6352,7 +6388,7 @@
       </c>
       <c r="C169" s="2"/>
       <c r="E169" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F169" t="s">
         <v>247</v>
@@ -6364,16 +6400,16 @@
         <v>249</v>
       </c>
       <c r="I169" t="s">
-        <v>256</v>
-      </c>
-      <c r="J169" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K169" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M169" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
@@ -6382,7 +6418,7 @@
       </c>
       <c r="C170" s="2"/>
       <c r="E170" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F170" t="s">
         <v>247</v>
@@ -6394,16 +6430,16 @@
         <v>249</v>
       </c>
       <c r="I170" t="s">
-        <v>256</v>
-      </c>
-      <c r="J170" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K170" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M170" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
@@ -6412,7 +6448,7 @@
       </c>
       <c r="C171" s="2"/>
       <c r="E171" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F171" t="s">
         <v>247</v>
@@ -6423,17 +6459,17 @@
       <c r="H171" t="s">
         <v>249</v>
       </c>
-      <c r="I171" t="s">
-        <v>256</v>
-      </c>
       <c r="J171" t="s">
-        <v>258</v>
-      </c>
-      <c r="K171" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="L171" t="s">
+        <v>257</v>
+      </c>
+      <c r="M171" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>185</v>
       </c>
@@ -6442,7 +6478,7 @@
       </c>
       <c r="C172" s="2"/>
       <c r="E172" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F172" t="s">
         <v>247</v>
@@ -6453,17 +6489,17 @@
       <c r="H172" t="s">
         <v>249</v>
       </c>
-      <c r="I172" t="s">
-        <v>256</v>
-      </c>
       <c r="J172" t="s">
-        <v>258</v>
-      </c>
-      <c r="K172" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="L172" t="s">
+        <v>257</v>
+      </c>
+      <c r="M172" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>186</v>
       </c>
@@ -6472,7 +6508,7 @@
       </c>
       <c r="C173" s="2"/>
       <c r="E173" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F173" t="s">
         <v>247</v>
@@ -6483,17 +6519,17 @@
       <c r="H173" t="s">
         <v>249</v>
       </c>
-      <c r="I173" t="s">
-        <v>256</v>
-      </c>
       <c r="J173" t="s">
-        <v>258</v>
-      </c>
-      <c r="K173" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="L173" t="s">
+        <v>257</v>
+      </c>
+      <c r="M173" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>187</v>
       </c>
@@ -6502,7 +6538,7 @@
       </c>
       <c r="C174" s="2"/>
       <c r="E174" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F174" t="s">
         <v>247</v>
@@ -6513,17 +6549,17 @@
       <c r="H174" t="s">
         <v>249</v>
       </c>
-      <c r="I174" t="s">
-        <v>256</v>
-      </c>
       <c r="J174" t="s">
-        <v>258</v>
-      </c>
-      <c r="K174" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="L174" t="s">
+        <v>257</v>
+      </c>
+      <c r="M174" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>188</v>
       </c>
@@ -6532,7 +6568,7 @@
       </c>
       <c r="C175" s="2"/>
       <c r="E175" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F175" t="s">
         <v>247</v>
@@ -6543,17 +6579,17 @@
       <c r="H175" t="s">
         <v>249</v>
       </c>
-      <c r="I175" t="s">
-        <v>256</v>
-      </c>
       <c r="J175" t="s">
-        <v>258</v>
-      </c>
-      <c r="K175" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="L175" t="s">
+        <v>257</v>
+      </c>
+      <c r="M175" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>189</v>
       </c>
@@ -6562,7 +6598,7 @@
       </c>
       <c r="C176" s="2"/>
       <c r="E176" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F176" t="s">
         <v>247</v>
@@ -6573,17 +6609,17 @@
       <c r="H176" t="s">
         <v>249</v>
       </c>
-      <c r="I176" t="s">
-        <v>256</v>
-      </c>
       <c r="J176" t="s">
-        <v>258</v>
-      </c>
-      <c r="K176" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="L176" t="s">
+        <v>257</v>
+      </c>
+      <c r="M176" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>190</v>
       </c>
@@ -6592,7 +6628,7 @@
       </c>
       <c r="C177" s="2"/>
       <c r="E177" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F177" t="s">
         <v>247</v>
@@ -6603,17 +6639,17 @@
       <c r="H177" t="s">
         <v>249</v>
       </c>
-      <c r="I177" t="s">
-        <v>256</v>
-      </c>
       <c r="J177" t="s">
-        <v>258</v>
-      </c>
-      <c r="K177" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="L177" t="s">
+        <v>257</v>
+      </c>
+      <c r="M177" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>191</v>
       </c>
@@ -6622,7 +6658,7 @@
       </c>
       <c r="C178" s="2"/>
       <c r="E178" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F178" t="s">
         <v>247</v>
@@ -6634,16 +6670,16 @@
         <v>249</v>
       </c>
       <c r="I178" t="s">
-        <v>256</v>
-      </c>
-      <c r="J178" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K178" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M178" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>192</v>
       </c>
@@ -6652,7 +6688,7 @@
       </c>
       <c r="C179" s="2"/>
       <c r="E179" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F179" t="s">
         <v>247</v>
@@ -6664,16 +6700,16 @@
         <v>249</v>
       </c>
       <c r="I179" t="s">
-        <v>256</v>
-      </c>
-      <c r="J179" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K179" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M179" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>193</v>
       </c>
@@ -6682,7 +6718,7 @@
       </c>
       <c r="C180" s="2"/>
       <c r="E180" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F180" t="s">
         <v>247</v>
@@ -6694,16 +6730,16 @@
         <v>249</v>
       </c>
       <c r="I180" t="s">
-        <v>256</v>
-      </c>
-      <c r="J180" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K180" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M180" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>195</v>
       </c>
@@ -6712,7 +6748,7 @@
       </c>
       <c r="C181" s="2"/>
       <c r="E181" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F181" t="s">
         <v>247</v>
@@ -6724,16 +6760,16 @@
         <v>249</v>
       </c>
       <c r="I181" t="s">
-        <v>256</v>
-      </c>
-      <c r="J181" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K181" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M181" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>197</v>
       </c>
@@ -6742,7 +6778,7 @@
       </c>
       <c r="C182" s="2"/>
       <c r="E182" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F182" t="s">
         <v>247</v>
@@ -6754,16 +6790,16 @@
         <v>249</v>
       </c>
       <c r="I182" t="s">
-        <v>256</v>
-      </c>
-      <c r="J182" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K182" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M182" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>198</v>
       </c>
@@ -6772,7 +6808,7 @@
       </c>
       <c r="C183" s="2"/>
       <c r="E183" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F183" t="s">
         <v>247</v>
@@ -6784,16 +6820,16 @@
         <v>249</v>
       </c>
       <c r="I183" t="s">
-        <v>256</v>
-      </c>
-      <c r="J183" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K183" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M183" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>199</v>
       </c>
@@ -6802,7 +6838,7 @@
       </c>
       <c r="C184" s="2"/>
       <c r="E184" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F184" t="s">
         <v>247</v>
@@ -6814,16 +6850,16 @@
         <v>249</v>
       </c>
       <c r="I184" t="s">
-        <v>256</v>
-      </c>
-      <c r="J184" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K184" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M184" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>200</v>
       </c>
@@ -6832,7 +6868,7 @@
       </c>
       <c r="C185" s="2"/>
       <c r="E185" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F185" t="s">
         <v>247</v>
@@ -6844,16 +6880,16 @@
         <v>249</v>
       </c>
       <c r="I185" t="s">
-        <v>256</v>
-      </c>
-      <c r="J185" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K185" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M185" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>201</v>
       </c>
@@ -6862,7 +6898,7 @@
       </c>
       <c r="C186" s="2"/>
       <c r="E186" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F186" t="s">
         <v>247</v>
@@ -6874,16 +6910,16 @@
         <v>249</v>
       </c>
       <c r="I186" t="s">
-        <v>256</v>
-      </c>
-      <c r="J186" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K186" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M186" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>202</v>
       </c>
@@ -6892,7 +6928,7 @@
       </c>
       <c r="C187" s="2"/>
       <c r="E187" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F187" t="s">
         <v>247</v>
@@ -6904,16 +6940,16 @@
         <v>249</v>
       </c>
       <c r="I187" t="s">
-        <v>256</v>
-      </c>
-      <c r="J187" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K187" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M187" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>203</v>
       </c>
@@ -6922,7 +6958,7 @@
       </c>
       <c r="C188" s="2"/>
       <c r="E188" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F188" t="s">
         <v>247</v>
@@ -6934,16 +6970,16 @@
         <v>249</v>
       </c>
       <c r="I188" t="s">
-        <v>256</v>
-      </c>
-      <c r="J188" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K188" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M188" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>204</v>
       </c>
@@ -6952,7 +6988,7 @@
       </c>
       <c r="C189" s="2"/>
       <c r="E189" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F189" t="s">
         <v>247</v>
@@ -6964,163 +7000,78 @@
         <v>249</v>
       </c>
       <c r="I189" t="s">
-        <v>256</v>
-      </c>
-      <c r="J189" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K189" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M189" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B190" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="C190" s="2"/>
-      <c r="E190" t="s">
-        <v>257</v>
-      </c>
-      <c r="F190" t="s">
-        <v>247</v>
-      </c>
-      <c r="G190" t="s">
-        <v>248</v>
-      </c>
-      <c r="H190" t="s">
-        <v>249</v>
-      </c>
-      <c r="I190" t="s">
-        <v>256</v>
-      </c>
       <c r="J190" t="s">
-        <v>258</v>
-      </c>
-      <c r="K190" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="L190" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
-      <c r="E191" t="s">
-        <v>257</v>
-      </c>
-      <c r="F191" t="s">
-        <v>247</v>
-      </c>
-      <c r="G191" t="s">
-        <v>248</v>
-      </c>
-      <c r="H191" t="s">
-        <v>249</v>
-      </c>
-      <c r="I191" t="s">
-        <v>256</v>
-      </c>
-      <c r="J191" t="s">
-        <v>258</v>
-      </c>
       <c r="K191" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
-      <c r="E192" t="s">
-        <v>257</v>
-      </c>
-      <c r="F192" t="s">
-        <v>247</v>
-      </c>
-      <c r="G192" t="s">
-        <v>248</v>
-      </c>
-      <c r="H192" t="s">
-        <v>249</v>
-      </c>
-      <c r="I192" t="s">
-        <v>256</v>
-      </c>
-      <c r="J192" t="s">
-        <v>258</v>
-      </c>
       <c r="K192" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
-      <c r="E193" t="s">
-        <v>257</v>
-      </c>
-      <c r="F193" t="s">
-        <v>247</v>
-      </c>
-      <c r="G193" t="s">
-        <v>248</v>
-      </c>
-      <c r="H193" t="s">
-        <v>249</v>
-      </c>
-      <c r="I193" t="s">
-        <v>256</v>
-      </c>
-      <c r="J193" t="s">
-        <v>258</v>
-      </c>
       <c r="K193" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
-      <c r="E194" t="s">
-        <v>257</v>
-      </c>
-      <c r="F194" t="s">
-        <v>247</v>
-      </c>
-      <c r="G194" t="s">
-        <v>248</v>
-      </c>
-      <c r="H194" t="s">
-        <v>249</v>
-      </c>
-      <c r="I194" t="s">
-        <v>256</v>
-      </c>
-      <c r="J194" t="s">
-        <v>258</v>
-      </c>
       <c r="K194" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="E195" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F195" t="s">
         <v>247</v>
@@ -7132,23 +7083,23 @@
         <v>249</v>
       </c>
       <c r="I195" t="s">
-        <v>256</v>
-      </c>
-      <c r="J195" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K195" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M195" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="E196" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F196" t="s">
         <v>247</v>
@@ -7160,23 +7111,23 @@
         <v>249</v>
       </c>
       <c r="I196" t="s">
-        <v>256</v>
-      </c>
-      <c r="J196" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K196" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M196" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="E197" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F197" t="s">
         <v>247</v>
@@ -7188,23 +7139,23 @@
         <v>249</v>
       </c>
       <c r="I197" t="s">
-        <v>256</v>
-      </c>
-      <c r="J197" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K197" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M197" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="E198" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F198" t="s">
         <v>247</v>
@@ -7216,23 +7167,23 @@
         <v>249</v>
       </c>
       <c r="I198" t="s">
-        <v>256</v>
-      </c>
-      <c r="J198" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K198" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M198" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="E199" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F199" t="s">
         <v>247</v>
@@ -7244,25 +7195,23 @@
         <v>249</v>
       </c>
       <c r="I199" t="s">
-        <v>256</v>
-      </c>
-      <c r="J199" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K199" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M199" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="E200" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F200" t="s">
         <v>247</v>
@@ -7274,25 +7223,23 @@
         <v>249</v>
       </c>
       <c r="I200" t="s">
-        <v>256</v>
-      </c>
-      <c r="J200" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K200" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M200" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="E201" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F201" t="s">
         <v>247</v>
@@ -7304,25 +7251,23 @@
         <v>249</v>
       </c>
       <c r="I201" t="s">
-        <v>256</v>
-      </c>
-      <c r="J201" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K201" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M201" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="E202" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F202" t="s">
         <v>247</v>
@@ -7334,25 +7279,23 @@
         <v>249</v>
       </c>
       <c r="I202" t="s">
-        <v>256</v>
-      </c>
-      <c r="J202" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K202" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M202" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="E203" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F203" t="s">
         <v>247</v>
@@ -7364,25 +7307,23 @@
         <v>249</v>
       </c>
       <c r="I203" t="s">
-        <v>256</v>
-      </c>
-      <c r="J203" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K203" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M203" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="E204" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F204" t="s">
         <v>247</v>
@@ -7394,25 +7335,25 @@
         <v>249</v>
       </c>
       <c r="I204" t="s">
-        <v>256</v>
-      </c>
-      <c r="J204" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K204" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M204" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C205" s="2"/>
       <c r="E205" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F205" t="s">
         <v>247</v>
@@ -7424,25 +7365,25 @@
         <v>249</v>
       </c>
       <c r="I205" t="s">
-        <v>256</v>
-      </c>
-      <c r="J205" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K205" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M205" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C206" s="2"/>
       <c r="E206" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F206" t="s">
         <v>247</v>
@@ -7454,25 +7395,25 @@
         <v>249</v>
       </c>
       <c r="I206" t="s">
-        <v>256</v>
-      </c>
-      <c r="J206" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K206" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M206" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C207" s="2"/>
       <c r="E207" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F207" t="s">
         <v>247</v>
@@ -7484,25 +7425,25 @@
         <v>249</v>
       </c>
       <c r="I207" t="s">
-        <v>256</v>
-      </c>
-      <c r="J207" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K207" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+      <c r="M207" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C208" s="2"/>
       <c r="E208" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F208" t="s">
         <v>247</v>
@@ -7514,25 +7455,25 @@
         <v>249</v>
       </c>
       <c r="I208" t="s">
-        <v>256</v>
-      </c>
-      <c r="J208" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K208" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+      <c r="M208" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C209" s="2"/>
       <c r="E209" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F209" t="s">
         <v>247</v>
@@ -7544,25 +7485,25 @@
         <v>249</v>
       </c>
       <c r="I209" t="s">
-        <v>256</v>
-      </c>
-      <c r="J209" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K209" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M209" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C210" s="2"/>
       <c r="E210" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F210" t="s">
         <v>247</v>
@@ -7574,25 +7515,25 @@
         <v>249</v>
       </c>
       <c r="I210" t="s">
-        <v>256</v>
-      </c>
-      <c r="J210" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K210" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M210" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C211" s="2"/>
       <c r="E211" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F211" t="s">
         <v>247</v>
@@ -7604,25 +7545,25 @@
         <v>249</v>
       </c>
       <c r="I211" t="s">
-        <v>256</v>
-      </c>
-      <c r="J211" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K211" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+      <c r="M211" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C212" s="2"/>
       <c r="E212" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F212" t="s">
         <v>247</v>
@@ -7634,25 +7575,25 @@
         <v>249</v>
       </c>
       <c r="I212" t="s">
-        <v>256</v>
-      </c>
-      <c r="J212" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K212" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+      <c r="M212" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C213" s="2"/>
       <c r="E213" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F213" t="s">
         <v>247</v>
@@ -7664,25 +7605,25 @@
         <v>249</v>
       </c>
       <c r="I213" t="s">
-        <v>256</v>
-      </c>
-      <c r="J213" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K213" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+      <c r="M213" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C214" s="2"/>
       <c r="E214" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F214" t="s">
         <v>247</v>
@@ -7694,25 +7635,25 @@
         <v>249</v>
       </c>
       <c r="I214" t="s">
-        <v>256</v>
-      </c>
-      <c r="J214" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K214" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+      <c r="M214" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C215" s="2"/>
       <c r="E215" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F215" t="s">
         <v>247</v>
@@ -7724,25 +7665,25 @@
         <v>249</v>
       </c>
       <c r="I215" t="s">
-        <v>256</v>
-      </c>
-      <c r="J215" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K215" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M215" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C216" s="2"/>
       <c r="E216" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F216" t="s">
         <v>247</v>
@@ -7754,25 +7695,25 @@
         <v>249</v>
       </c>
       <c r="I216" t="s">
-        <v>256</v>
-      </c>
-      <c r="J216" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K216" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M216" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C217" s="2"/>
       <c r="E217" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F217" t="s">
         <v>247</v>
@@ -7784,25 +7725,25 @@
         <v>249</v>
       </c>
       <c r="I217" t="s">
-        <v>256</v>
-      </c>
-      <c r="J217" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K217" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M217" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C218" s="2"/>
       <c r="E218" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F218" t="s">
         <v>247</v>
@@ -7814,25 +7755,25 @@
         <v>249</v>
       </c>
       <c r="I218" t="s">
-        <v>256</v>
-      </c>
-      <c r="J218" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K218" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M218" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C219" s="2"/>
       <c r="E219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F219" t="s">
         <v>247</v>
@@ -7844,25 +7785,25 @@
         <v>249</v>
       </c>
       <c r="I219" t="s">
-        <v>256</v>
-      </c>
-      <c r="J219" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K219" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M219" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C220" s="2"/>
       <c r="E220" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F220" t="s">
         <v>247</v>
@@ -7874,25 +7815,25 @@
         <v>249</v>
       </c>
       <c r="I220" t="s">
-        <v>256</v>
-      </c>
-      <c r="J220" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K220" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M220" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C221" s="2"/>
       <c r="E221" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F221" t="s">
         <v>247</v>
@@ -7904,25 +7845,25 @@
         <v>249</v>
       </c>
       <c r="I221" t="s">
-        <v>256</v>
-      </c>
-      <c r="J221" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K221" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M221" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C222" s="2"/>
       <c r="E222" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F222" t="s">
         <v>247</v>
@@ -7934,25 +7875,25 @@
         <v>249</v>
       </c>
       <c r="I222" t="s">
-        <v>256</v>
-      </c>
-      <c r="J222" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K222" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M222" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C223" s="2"/>
       <c r="E223" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F223" t="s">
         <v>247</v>
@@ -7964,25 +7905,25 @@
         <v>249</v>
       </c>
       <c r="I223" t="s">
-        <v>256</v>
-      </c>
-      <c r="J223" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K223" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M223" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C224" s="2"/>
       <c r="E224" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F224" t="s">
         <v>247</v>
@@ -7994,25 +7935,25 @@
         <v>249</v>
       </c>
       <c r="I224" t="s">
-        <v>256</v>
-      </c>
-      <c r="J224" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K224" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M224" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C225" s="2"/>
       <c r="E225" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F225" t="s">
         <v>247</v>
@@ -8024,25 +7965,25 @@
         <v>249</v>
       </c>
       <c r="I225" t="s">
-        <v>256</v>
-      </c>
-      <c r="J225" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="K225" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M225" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C226" s="2"/>
       <c r="E226" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F226" t="s">
         <v>247</v>
@@ -8054,25 +7995,25 @@
         <v>249</v>
       </c>
       <c r="I226" t="s">
-        <v>256</v>
-      </c>
-      <c r="J226" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K226" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M226" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C227" s="2"/>
       <c r="E227" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F227" t="s">
         <v>247</v>
@@ -8084,25 +8025,25 @@
         <v>249</v>
       </c>
       <c r="I227" t="s">
-        <v>256</v>
-      </c>
-      <c r="J227" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K227" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="M227" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C228" s="2"/>
       <c r="E228" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F228" t="s">
         <v>247</v>
@@ -8114,43 +8055,193 @@
         <v>249</v>
       </c>
       <c r="I228" t="s">
-        <v>256</v>
-      </c>
-      <c r="J228" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K228" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A229" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="M228" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C229" s="2"/>
+      <c r="E229" t="s">
+        <v>256</v>
+      </c>
+      <c r="F229" t="s">
+        <v>247</v>
+      </c>
+      <c r="G229" t="s">
+        <v>248</v>
+      </c>
+      <c r="H229" t="s">
+        <v>249</v>
+      </c>
+      <c r="I229" t="s">
+        <v>255</v>
+      </c>
+      <c r="K229" t="s">
+        <v>257</v>
+      </c>
+      <c r="M229" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C230" s="2"/>
+      <c r="E230" t="s">
+        <v>256</v>
+      </c>
+      <c r="F230" t="s">
+        <v>247</v>
+      </c>
+      <c r="G230" t="s">
+        <v>248</v>
+      </c>
+      <c r="H230" t="s">
+        <v>249</v>
+      </c>
+      <c r="I230" t="s">
+        <v>255</v>
+      </c>
+      <c r="K230" t="s">
+        <v>263</v>
+      </c>
+      <c r="M230" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A231" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C231" s="2"/>
+      <c r="E231" t="s">
+        <v>256</v>
+      </c>
+      <c r="F231" t="s">
+        <v>247</v>
+      </c>
+      <c r="G231" t="s">
+        <v>248</v>
+      </c>
+      <c r="H231" t="s">
+        <v>249</v>
+      </c>
+      <c r="I231" t="s">
+        <v>255</v>
+      </c>
+      <c r="K231" t="s">
+        <v>257</v>
+      </c>
+      <c r="M231" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C232" s="2"/>
+      <c r="E232" t="s">
+        <v>256</v>
+      </c>
+      <c r="F232" t="s">
+        <v>247</v>
+      </c>
+      <c r="G232" t="s">
+        <v>248</v>
+      </c>
+      <c r="H232" t="s">
+        <v>249</v>
+      </c>
+      <c r="I232" t="s">
+        <v>255</v>
+      </c>
+      <c r="K232" t="s">
+        <v>257</v>
+      </c>
+      <c r="M232" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C233" s="2"/>
+      <c r="E233" t="s">
+        <v>256</v>
+      </c>
+      <c r="F233" t="s">
+        <v>247</v>
+      </c>
+      <c r="G233" t="s">
+        <v>248</v>
+      </c>
+      <c r="H233" t="s">
+        <v>249</v>
+      </c>
+      <c r="I233" t="s">
+        <v>255</v>
+      </c>
+      <c r="K233" t="s">
+        <v>257</v>
+      </c>
+      <c r="M233" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A234" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B234" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C229" s="4"/>
-      <c r="E229" t="s">
-        <v>257</v>
-      </c>
-      <c r="F229" t="s">
-        <v>247</v>
-      </c>
-      <c r="G229" t="s">
-        <v>248</v>
-      </c>
-      <c r="H229" t="s">
-        <v>249</v>
-      </c>
-      <c r="I229" t="s">
-        <v>256</v>
-      </c>
-      <c r="J229" t="s">
-        <v>258</v>
-      </c>
-      <c r="K229" t="s">
-        <v>266</v>
+      <c r="C234" s="4"/>
+      <c r="E234" t="s">
+        <v>256</v>
+      </c>
+      <c r="F234" t="s">
+        <v>247</v>
+      </c>
+      <c r="G234" t="s">
+        <v>248</v>
+      </c>
+      <c r="H234" t="s">
+        <v>249</v>
+      </c>
+      <c r="I234" t="s">
+        <v>255</v>
+      </c>
+      <c r="K234" t="s">
+        <v>257</v>
+      </c>
+      <c r="M234" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/thursday schedule.xlsx
+++ b/uploads/thursday schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2171EAA7-AE62-4211-BA03-40CF7CF6FD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B77CD3-718B-46C0-BF2A-87F1717EAF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{D24987D2-A9CF-4F58-A0EE-AE26C4C17D0D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="276">
   <si>
     <t>Names</t>
   </si>
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9515A2D6-4B43-42A3-83C1-E5B00F3CFC4C}">
   <dimension ref="A1:M234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L198" sqref="L198"/>
+    <sheetView tabSelected="1" topLeftCell="E194" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I191" sqref="I191:I194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7017,6 +7017,18 @@
         <v>184</v>
       </c>
       <c r="C190" s="2"/>
+      <c r="E190" t="s">
+        <v>256</v>
+      </c>
+      <c r="F190" t="s">
+        <v>247</v>
+      </c>
+      <c r="G190" t="s">
+        <v>248</v>
+      </c>
+      <c r="H190" t="s">
+        <v>249</v>
+      </c>
       <c r="J190" t="s">
         <v>269</v>
       </c>
@@ -7030,6 +7042,21 @@
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
+      <c r="E191" t="s">
+        <v>256</v>
+      </c>
+      <c r="F191" t="s">
+        <v>247</v>
+      </c>
+      <c r="G191" t="s">
+        <v>248</v>
+      </c>
+      <c r="H191" t="s">
+        <v>249</v>
+      </c>
+      <c r="I191" t="s">
+        <v>255</v>
+      </c>
       <c r="K191" t="s">
         <v>257</v>
       </c>
@@ -7040,6 +7067,21 @@
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
+      <c r="E192" t="s">
+        <v>256</v>
+      </c>
+      <c r="F192" t="s">
+        <v>247</v>
+      </c>
+      <c r="G192" t="s">
+        <v>248</v>
+      </c>
+      <c r="H192" t="s">
+        <v>249</v>
+      </c>
+      <c r="I192" t="s">
+        <v>255</v>
+      </c>
       <c r="K192" t="s">
         <v>257</v>
       </c>
@@ -7050,6 +7092,21 @@
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
+      <c r="E193" t="s">
+        <v>256</v>
+      </c>
+      <c r="F193" t="s">
+        <v>247</v>
+      </c>
+      <c r="G193" t="s">
+        <v>248</v>
+      </c>
+      <c r="H193" t="s">
+        <v>249</v>
+      </c>
+      <c r="I193" t="s">
+        <v>255</v>
+      </c>
       <c r="K193" t="s">
         <v>257</v>
       </c>
@@ -7060,6 +7117,21 @@
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
+      <c r="E194" t="s">
+        <v>256</v>
+      </c>
+      <c r="F194" t="s">
+        <v>247</v>
+      </c>
+      <c r="G194" t="s">
+        <v>248</v>
+      </c>
+      <c r="H194" t="s">
+        <v>249</v>
+      </c>
+      <c r="I194" t="s">
+        <v>255</v>
+      </c>
       <c r="K194" t="s">
         <v>257</v>
       </c>

--- a/uploads/thursday schedule.xlsx
+++ b/uploads/thursday schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B77CD3-718B-46C0-BF2A-87F1717EAF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A336F78A-9599-4DFB-963A-05658C39C763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{D24987D2-A9CF-4F58-A0EE-AE26C4C17D0D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="277">
   <si>
     <t>Names</t>
   </si>
@@ -875,6 +875,9 @@
   <si>
     <t>Walk Your Schedule Tours
 3:00 PM - 5:00 PM</t>
+  </si>
+  <si>
+    <t>Refer to Sarah</t>
   </si>
 </sst>
 </file>
@@ -1299,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9515A2D6-4B43-42A3-83C1-E5B00F3CFC4C}">
   <dimension ref="A1:M234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E194" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I191" sqref="I191:I194"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1598,11 +1601,8 @@
       <c r="H9" t="s">
         <v>249</v>
       </c>
-      <c r="I9" t="s">
-        <v>255</v>
-      </c>
       <c r="K9" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="M9" t="s">
         <v>265</v>
@@ -1629,11 +1629,8 @@
       <c r="H10" t="s">
         <v>249</v>
       </c>
-      <c r="I10" t="s">
-        <v>255</v>
-      </c>
       <c r="K10" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="M10" t="s">
         <v>265</v>

--- a/uploads/thursday schedule.xlsx
+++ b/uploads/thursday schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A336F78A-9599-4DFB-963A-05658C39C763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBDF226-E0E5-465D-8ED3-9305C0034FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{D24987D2-A9CF-4F58-A0EE-AE26C4C17D0D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="280">
   <si>
     <t>Names</t>
   </si>
@@ -543,12 +543,6 @@
   </si>
   <si>
     <t>Shainah Chris Dioquino</t>
-  </si>
-  <si>
-    <t>Saleena Dockstader</t>
-  </si>
-  <si>
-    <t>Meagan Silver</t>
   </si>
   <si>
     <t>Henry Munoz</t>
@@ -790,10 +784,6 @@
   <si>
     <t>Arrive
 8:00 AM - 9:00 AM</t>
-  </si>
-  <si>
-    <t>Training with Sister Colvin
-9:15 AM - 11:00 AM</t>
   </si>
   <si>
     <t>Training with President Meredith
@@ -831,9 +821,6 @@
 5:00</t>
   </si>
   <si>
-    <t>Assist with Joey at his table.</t>
-  </si>
-  <si>
     <t>Scan people in. You got this girl.</t>
   </si>
   <si>
@@ -878,6 +865,28 @@
   </si>
   <si>
     <t>Refer to Sarah</t>
+  </si>
+  <si>
+    <t>Meagan Gray</t>
+  </si>
+  <si>
+    <t>Saleena Christopherson</t>
+  </si>
+  <si>
+    <t>Olivia Alexander</t>
+  </si>
+  <si>
+    <t>Letti Fuller</t>
+  </si>
+  <si>
+    <t>Hannah Poulson</t>
+  </si>
+  <si>
+    <t>Training with Sister Colvin
+9:30 AM - 11:00 AM</t>
+  </si>
+  <si>
+    <t>Check students in to tours in the Taylor West Foyer</t>
   </si>
 </sst>
 </file>
@@ -1300,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9515A2D6-4B43-42A3-83C1-E5B00F3CFC4C}">
-  <dimension ref="A1:M234"/>
+  <dimension ref="A1:M237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="J194" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K210" sqref="K210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1333,34 +1342,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1370,28 +1379,28 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -1401,28 +1410,28 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -1432,28 +1441,28 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -1463,28 +1472,28 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -1494,28 +1503,28 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -1525,28 +1534,28 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1556,28 +1565,28 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -1587,25 +1596,25 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -1615,25 +1624,25 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1645,25 +1654,25 @@
       </c>
       <c r="C11" s="2"/>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J11" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1675,25 +1684,25 @@
       </c>
       <c r="C12" s="2"/>
       <c r="E12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1705,25 +1714,25 @@
       </c>
       <c r="C13" s="2"/>
       <c r="E13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J13" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M13" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -1735,25 +1744,25 @@
       </c>
       <c r="C14" s="2"/>
       <c r="E14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M14" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1765,25 +1774,25 @@
       </c>
       <c r="C15" s="2"/>
       <c r="E15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1795,25 +1804,25 @@
       </c>
       <c r="C16" s="2"/>
       <c r="E16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M16" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -1825,25 +1834,25 @@
       </c>
       <c r="C17" s="2"/>
       <c r="E17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I17" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M17" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -1855,25 +1864,25 @@
       </c>
       <c r="C18" s="2"/>
       <c r="E18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I18" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -1885,25 +1894,25 @@
       </c>
       <c r="C19" s="2"/>
       <c r="E19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -1915,25 +1924,25 @@
       </c>
       <c r="C20" s="2"/>
       <c r="E20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -1945,25 +1954,25 @@
       </c>
       <c r="C21" s="2"/>
       <c r="E21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M21" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -1975,25 +1984,25 @@
       </c>
       <c r="C22" s="2"/>
       <c r="E22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -2005,25 +2014,25 @@
       </c>
       <c r="C23" s="2"/>
       <c r="E23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M23" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -2035,25 +2044,25 @@
       </c>
       <c r="C24" s="2"/>
       <c r="E24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M24" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -2065,25 +2074,25 @@
       </c>
       <c r="C25" s="2"/>
       <c r="E25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -2095,25 +2104,25 @@
       </c>
       <c r="C26" s="2"/>
       <c r="E26" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I26" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -2125,25 +2134,25 @@
       </c>
       <c r="C27" s="2"/>
       <c r="E27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -2155,25 +2164,25 @@
       </c>
       <c r="C28" s="2"/>
       <c r="E28" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -2185,25 +2194,25 @@
       </c>
       <c r="C29" s="2"/>
       <c r="E29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -2215,25 +2224,25 @@
       </c>
       <c r="C30" s="2"/>
       <c r="E30" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I30" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -2245,25 +2254,25 @@
       </c>
       <c r="C31" s="2"/>
       <c r="E31" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -2275,6042 +2284,6132 @@
       </c>
       <c r="C32" s="2"/>
       <c r="E32" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K32" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="2"/>
       <c r="E33" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I33" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="2"/>
       <c r="E34" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I34" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K34" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M34" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="2"/>
       <c r="E35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K35" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M35" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="2"/>
       <c r="E36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K36" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M36" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="2"/>
       <c r="E37" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G37" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I37" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K37" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M37" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="2"/>
       <c r="E38" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I38" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K38" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M38" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="2"/>
       <c r="E39" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F39" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G39" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I39" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K39" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M39" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="2"/>
       <c r="E40" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I40" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K40" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M40" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2"/>
       <c r="E41" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G41" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H41" t="s">
-        <v>249</v>
-      </c>
-      <c r="J41" t="s">
-        <v>268</v>
-      </c>
-      <c r="L41" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="I41" t="s">
+        <v>252</v>
+      </c>
+      <c r="K41" t="s">
+        <v>254</v>
       </c>
       <c r="M41" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2"/>
       <c r="E42" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J42" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L42" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M42" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="2"/>
       <c r="E43" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F43" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J43" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L43" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M43" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2"/>
       <c r="E44" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F44" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G44" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H44" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J44" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L44" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M44" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2"/>
       <c r="E45" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F45" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J45" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L45" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M45" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="2"/>
       <c r="E46" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F46" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G46" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H46" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J46" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L46" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M46" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2"/>
       <c r="E47" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F47" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G47" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H47" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J47" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L47" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M47" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2"/>
       <c r="E48" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F48" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G48" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H48" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J48" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L48" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M48" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2"/>
       <c r="E49" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F49" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G49" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H49" t="s">
-        <v>249</v>
-      </c>
-      <c r="I49" t="s">
-        <v>255</v>
-      </c>
-      <c r="K49" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="J49" t="s">
+        <v>264</v>
+      </c>
+      <c r="L49" t="s">
+        <v>254</v>
       </c>
       <c r="M49" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="2"/>
       <c r="E50" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F50" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G50" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H50" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K50" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M50" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="2"/>
       <c r="E51" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F51" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G51" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K51" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M51" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="2"/>
       <c r="E52" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F52" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I52" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K52" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M52" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C53" s="2"/>
       <c r="E53" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F53" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G53" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H53" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I53" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K53" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M53" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C54" s="2"/>
       <c r="E54" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F54" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G54" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H54" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I54" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K54" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M54" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C55" s="2"/>
       <c r="E55" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G55" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H55" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I55" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K55" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M55" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C56" s="2"/>
       <c r="E56" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F56" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G56" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H56" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I56" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K56" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M56" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C57" s="2"/>
       <c r="E57" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F57" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G57" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H57" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I57" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K57" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M57" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C58" s="2"/>
       <c r="E58" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F58" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G58" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H58" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I58" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K58" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M58" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C59" s="2"/>
       <c r="E59" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F59" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G59" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H59" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I59" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K59" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M59" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C60" s="2"/>
       <c r="E60" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F60" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G60" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H60" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I60" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K60" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M60" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C61" s="2"/>
       <c r="E61" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F61" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G61" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H61" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I61" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K61" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M61" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C62" s="2"/>
       <c r="E62" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F62" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G62" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H62" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I62" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K62" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M62" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C63" s="2"/>
       <c r="E63" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F63" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G63" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H63" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I63" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K63" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M63" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C64" s="2"/>
       <c r="E64" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F64" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G64" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H64" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I64" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K64" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M64" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C65" s="2"/>
       <c r="E65" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F65" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G65" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H65" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I65" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K65" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M65" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C66" s="2"/>
       <c r="E66" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F66" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G66" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I66" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K66" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M66" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C67" s="2"/>
       <c r="E67" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F67" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G67" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H67" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K67" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M67" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C68" s="2"/>
       <c r="E68" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F68" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G68" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H68" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I68" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K68" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M68" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C69" s="2"/>
       <c r="E69" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F69" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G69" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H69" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I69" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K69" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M69" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>258</v>
+        <v>47</v>
       </c>
       <c r="C70" s="2"/>
       <c r="E70" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F70" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G70" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H70" t="s">
-        <v>249</v>
-      </c>
-      <c r="J70" t="s">
-        <v>268</v>
-      </c>
-      <c r="L70" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="I70" t="s">
+        <v>252</v>
+      </c>
+      <c r="K70" t="s">
+        <v>254</v>
       </c>
       <c r="M70" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="C71" s="2"/>
       <c r="E71" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F71" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G71" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H71" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J71" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L71" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M71" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C72" s="2"/>
       <c r="E72" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F72" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G72" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H72" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J72" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L72" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M72" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C73" s="2"/>
       <c r="E73" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F73" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G73" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H73" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J73" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L73" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M73" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C74" s="2"/>
       <c r="E74" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F74" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G74" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H74" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J74" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L74" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M74" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="2"/>
       <c r="E75" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F75" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G75" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H75" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J75" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L75" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M75" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C76" s="2"/>
       <c r="E76" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F76" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G76" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H76" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J76" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L76" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M76" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C77" s="2"/>
       <c r="E77" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F77" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G77" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H77" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J77" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L77" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M77" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="2"/>
       <c r="E78" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F78" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G78" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H78" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J78" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L78" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M78" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C79" s="2"/>
       <c r="E79" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F79" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G79" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H79" t="s">
-        <v>249</v>
-      </c>
-      <c r="I79" t="s">
-        <v>255</v>
-      </c>
-      <c r="K79" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="J79" t="s">
+        <v>264</v>
+      </c>
+      <c r="L79" t="s">
+        <v>254</v>
       </c>
       <c r="M79" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C80" s="2"/>
       <c r="E80" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F80" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G80" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H80" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I80" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K80" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M80" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C81" s="2"/>
       <c r="E81" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F81" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G81" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H81" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I81" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K81" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M81" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C82" s="2"/>
       <c r="E82" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F82" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G82" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H82" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I82" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K82" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M82" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C83" s="2"/>
       <c r="E83" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F83" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G83" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H83" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I83" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K83" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M83" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C84" s="2"/>
       <c r="E84" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F84" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G84" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H84" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I84" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K84" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M84" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C85" s="2"/>
       <c r="E85" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F85" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G85" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H85" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I85" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K85" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M85" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C86" s="2"/>
       <c r="E86" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F86" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G86" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H86" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I86" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K86" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M86" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C87" s="2"/>
       <c r="E87" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F87" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G87" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H87" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I87" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K87" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M87" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C88" s="2"/>
       <c r="E88" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F88" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G88" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H88" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I88" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K88" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M88" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2"/>
       <c r="E89" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F89" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G89" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H89" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I89" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K89" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M89" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C90" s="2"/>
       <c r="E90" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F90" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G90" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H90" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I90" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K90" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M90" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2"/>
       <c r="E91" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F91" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G91" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H91" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I91" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K91" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M91" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C92" s="2"/>
       <c r="E92" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F92" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G92" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H92" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I92" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K92" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M92" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C93" s="2"/>
       <c r="E93" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F93" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G93" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H93" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I93" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K93" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M93" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C94" s="2"/>
       <c r="E94" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F94" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G94" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H94" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I94" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K94" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M94" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C95" s="2"/>
       <c r="E95" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F95" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G95" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H95" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I95" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K95" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M95" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C96" s="2"/>
       <c r="E96" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F96" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G96" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H96" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I96" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K96" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M96" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="C97" s="2"/>
       <c r="E97" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F97" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G97" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H97" t="s">
-        <v>249</v>
-      </c>
-      <c r="J97" t="s">
-        <v>268</v>
-      </c>
-      <c r="L97" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="I97" t="s">
+        <v>252</v>
+      </c>
+      <c r="K97" t="s">
+        <v>254</v>
       </c>
       <c r="M97" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C98" s="2"/>
       <c r="E98" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F98" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G98" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H98" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J98" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L98" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M98" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C99" s="2"/>
       <c r="E99" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G99" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H99" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J99" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L99" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M99" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C100" s="2"/>
       <c r="E100" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F100" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G100" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H100" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J100" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L100" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M100" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C101" s="2"/>
       <c r="E101" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F101" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G101" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H101" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J101" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L101" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M101" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C102" s="2"/>
       <c r="E102" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F102" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G102" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H102" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J102" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L102" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M102" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C103" s="2"/>
       <c r="E103" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F103" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G103" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H103" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J103" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L103" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M103" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C104" s="2"/>
       <c r="E104" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F104" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G104" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H104" t="s">
-        <v>249</v>
-      </c>
-      <c r="I104" t="s">
-        <v>255</v>
-      </c>
-      <c r="K104" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="J104" t="s">
+        <v>264</v>
+      </c>
+      <c r="L104" t="s">
+        <v>254</v>
       </c>
       <c r="M104" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C105" s="2"/>
       <c r="E105" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F105" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G105" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H105" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I105" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K105" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M105" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C106" s="2"/>
       <c r="E106" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F106" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G106" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H106" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I106" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K106" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M106" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C107" s="2"/>
       <c r="E107" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F107" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G107" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H107" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I107" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K107" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M107" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C108" s="2"/>
       <c r="E108" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F108" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G108" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H108" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I108" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K108" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M108" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C109" s="2"/>
       <c r="E109" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F109" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G109" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H109" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I109" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K109" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M109" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C110" s="2"/>
       <c r="E110" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F110" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G110" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H110" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I110" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K110" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M110" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C111" s="2"/>
       <c r="E111" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F111" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G111" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H111" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I111" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K111" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M111" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C112" s="2"/>
       <c r="E112" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F112" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G112" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H112" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I112" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K112" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M112" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C113" s="2"/>
       <c r="E113" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F113" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G113" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H113" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I113" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K113" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M113" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C114" s="2"/>
       <c r="E114" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F114" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G114" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H114" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I114" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K114" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M114" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C115" s="2"/>
       <c r="E115" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F115" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G115" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H115" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I115" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K115" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M115" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C116" s="2"/>
       <c r="E116" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F116" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G116" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H116" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I116" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K116" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M116" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C117" s="2"/>
       <c r="E117" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F117" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G117" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H117" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I117" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K117" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M117" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C118" s="2"/>
       <c r="E118" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F118" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G118" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H118" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I118" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K118" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M118" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C119" s="2"/>
       <c r="E119" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F119" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G119" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H119" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I119" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K119" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M119" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C120" s="2"/>
       <c r="E120" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F120" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G120" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H120" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I120" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K120" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M120" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C121" s="2"/>
       <c r="E121" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F121" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G121" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H121" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I121" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K121" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M121" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C122" s="2"/>
       <c r="E122" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F122" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G122" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H122" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I122" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K122" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M122" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C123" s="2"/>
       <c r="E123" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F123" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G123" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H123" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I123" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K123" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M123" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="C124" s="2"/>
       <c r="E124" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F124" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G124" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H124" t="s">
-        <v>249</v>
-      </c>
-      <c r="J124" t="s">
-        <v>268</v>
-      </c>
-      <c r="L124" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="I124" t="s">
+        <v>252</v>
+      </c>
+      <c r="K124" t="s">
+        <v>254</v>
       </c>
       <c r="M124" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C125" s="2"/>
       <c r="E125" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H125" t="s">
-        <v>249</v>
-      </c>
-      <c r="I125" t="s">
-        <v>255</v>
-      </c>
-      <c r="K125" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="J125" t="s">
+        <v>264</v>
+      </c>
+      <c r="L125" t="s">
+        <v>254</v>
       </c>
       <c r="M125" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C126" s="2"/>
       <c r="E126" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K126" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M126" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C127" s="2"/>
       <c r="E127" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I127" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K127" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M127" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C128" s="2"/>
       <c r="E128" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G128" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I128" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K128" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M128" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C129" s="2"/>
       <c r="E129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G129" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H129" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K129" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M129" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C130" s="2"/>
       <c r="E130" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G130" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H130" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I130" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M130" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C131" s="2"/>
       <c r="E131" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G131" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H131" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K131" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M131" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C132" s="2"/>
       <c r="E132" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G132" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H132" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I132" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K132" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M132" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C133" s="2"/>
       <c r="E133" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G133" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H133" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I133" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K133" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M133" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C134" s="2"/>
       <c r="E134" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G134" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H134" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I134" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K134" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M134" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C135" s="2"/>
       <c r="E135" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G135" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H135" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I135" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K135" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M135" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C136" s="2"/>
       <c r="E136" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F136" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G136" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H136" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I136" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K136" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M136" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C137" s="2"/>
       <c r="E137" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F137" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G137" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H137" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I137" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K137" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M137" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>148</v>
+        <v>276</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C138" s="2"/>
       <c r="E138" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F138" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G138" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H138" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I138" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K138" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M138" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C139" s="2"/>
       <c r="E139" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F139" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G139" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H139" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I139" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K139" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M139" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C140" s="2"/>
       <c r="E140" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F140" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G140" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H140" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I140" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K140" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M140" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C141" s="2"/>
       <c r="E141" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F141" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G141" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H141" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I141" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K141" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M141" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C142" s="2"/>
       <c r="E142" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F142" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G142" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H142" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I142" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K142" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M142" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C143" s="2"/>
       <c r="E143" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F143" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G143" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H143" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I143" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K143" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M143" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C144" s="2"/>
       <c r="E144" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F144" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G144" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H144" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I144" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K144" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M144" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C145" s="2"/>
       <c r="E145" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F145" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G145" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H145" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I145" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K145" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M145" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C146" s="2"/>
       <c r="E146" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F146" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G146" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H146" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I146" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K146" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M146" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C147" s="2"/>
       <c r="E147" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F147" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G147" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H147" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I147" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K147" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M147" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C148" s="2"/>
       <c r="E148" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F148" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G148" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H148" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I148" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K148" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M148" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C149" s="2"/>
       <c r="E149" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F149" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G149" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H149" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I149" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K149" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M149" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C150" s="2"/>
       <c r="E150" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F150" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G150" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H150" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I150" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K150" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M150" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C151" s="2"/>
       <c r="E151" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F151" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G151" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H151" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I151" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K151" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M151" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C152" s="2"/>
       <c r="E152" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F152" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G152" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H152" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I152" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K152" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M152" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C153" s="2"/>
       <c r="E153" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F153" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G153" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H153" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I153" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K153" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M153" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C154" s="2"/>
       <c r="E154" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F154" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G154" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H154" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I154" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K154" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M154" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C155" s="2"/>
       <c r="E155" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F155" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G155" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H155" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I155" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K155" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M155" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C156" s="2"/>
       <c r="E156" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F156" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G156" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H156" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I156" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K156" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M156" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C157" s="2"/>
       <c r="E157" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F157" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G157" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H157" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I157" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K157" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M157" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C158" s="2"/>
       <c r="E158" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F158" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G158" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H158" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I158" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K158" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M158" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C159" s="2"/>
       <c r="E159" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F159" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G159" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H159" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I159" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K159" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M159" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C160" s="2"/>
       <c r="E160" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F160" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G160" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H160" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I160" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K160" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M160" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C161" s="2"/>
       <c r="E161" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F161" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G161" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H161" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I161" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K161" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M161" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C162" s="2"/>
       <c r="E162" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F162" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G162" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H162" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I162" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K162" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M162" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C163" s="2"/>
       <c r="E163" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F163" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G163" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H163" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I163" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K163" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M163" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C164" s="2"/>
       <c r="E164" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F164" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G164" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H164" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I164" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K164" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M164" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C165" s="2"/>
       <c r="E165" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F165" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G165" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H165" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I165" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K165" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M165" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C166" s="2"/>
       <c r="E166" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F166" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G166" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H166" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I166" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K166" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M166" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C167" s="2"/>
       <c r="E167" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F167" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G167" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H167" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I167" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K167" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M167" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C168" s="2"/>
       <c r="E168" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F168" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G168" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H168" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I168" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K168" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M168" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C169" s="2"/>
       <c r="E169" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F169" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G169" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H169" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I169" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K169" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M169" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C170" s="2"/>
       <c r="E170" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F170" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G170" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H170" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I170" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K170" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M170" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C171" s="2"/>
       <c r="E171" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F171" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G171" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H171" t="s">
-        <v>249</v>
-      </c>
-      <c r="J171" t="s">
-        <v>269</v>
-      </c>
-      <c r="L171" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="I171" t="s">
+        <v>252</v>
+      </c>
+      <c r="K171" t="s">
+        <v>254</v>
       </c>
       <c r="M171" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C172" s="2"/>
       <c r="E172" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F172" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G172" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H172" t="s">
-        <v>249</v>
-      </c>
-      <c r="J172" t="s">
-        <v>269</v>
-      </c>
-      <c r="L172" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="I172" t="s">
+        <v>252</v>
+      </c>
+      <c r="K172" t="s">
+        <v>254</v>
       </c>
       <c r="M172" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C173" s="2"/>
       <c r="E173" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F173" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G173" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H173" t="s">
-        <v>249</v>
-      </c>
-      <c r="J173" t="s">
-        <v>269</v>
-      </c>
-      <c r="L173" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="I173" t="s">
+        <v>252</v>
+      </c>
+      <c r="K173" t="s">
+        <v>254</v>
       </c>
       <c r="M173" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C174" s="2"/>
       <c r="E174" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F174" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G174" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H174" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J174" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L174" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M174" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C175" s="2"/>
       <c r="E175" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F175" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G175" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H175" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J175" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L175" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M175" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C176" s="2"/>
       <c r="E176" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F176" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G176" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H176" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J176" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L176" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M176" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C177" s="2"/>
       <c r="E177" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F177" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G177" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H177" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J177" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L177" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M177" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="C178" s="2"/>
       <c r="E178" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F178" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G178" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H178" t="s">
-        <v>249</v>
-      </c>
-      <c r="I178" t="s">
-        <v>255</v>
-      </c>
-      <c r="K178" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="J178" t="s">
+        <v>265</v>
+      </c>
+      <c r="L178" t="s">
+        <v>254</v>
       </c>
       <c r="M178" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="C179" s="2"/>
       <c r="E179" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F179" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G179" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H179" t="s">
-        <v>249</v>
-      </c>
-      <c r="I179" t="s">
-        <v>255</v>
-      </c>
-      <c r="K179" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="J179" t="s">
+        <v>265</v>
+      </c>
+      <c r="L179" t="s">
+        <v>254</v>
       </c>
       <c r="M179" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C180" s="2"/>
       <c r="E180" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F180" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G180" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H180" t="s">
-        <v>249</v>
-      </c>
-      <c r="I180" t="s">
-        <v>255</v>
-      </c>
-      <c r="K180" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="J180" t="s">
+        <v>265</v>
+      </c>
+      <c r="L180" t="s">
+        <v>254</v>
       </c>
       <c r="M180" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="C181" s="2"/>
       <c r="E181" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F181" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G181" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H181" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I181" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K181" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M181" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="C182" s="2"/>
       <c r="E182" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F182" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G182" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H182" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I182" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K182" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M182" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="C183" s="2"/>
       <c r="E183" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F183" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G183" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H183" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I183" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K183" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M183" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="C184" s="2"/>
       <c r="E184" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F184" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G184" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H184" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I184" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K184" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M184" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="C185" s="2"/>
       <c r="E185" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F185" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G185" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H185" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I185" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K185" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M185" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="C186" s="2"/>
       <c r="E186" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F186" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G186" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H186" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I186" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K186" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M186" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="C187" s="2"/>
       <c r="E187" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F187" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G187" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H187" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I187" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K187" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M187" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="C188" s="2"/>
       <c r="E188" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F188" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G188" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H188" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I188" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K188" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M188" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C189" s="2"/>
       <c r="E189" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F189" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G189" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H189" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I189" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K189" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M189" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="C190" s="2"/>
       <c r="E190" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F190" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G190" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H190" t="s">
-        <v>249</v>
-      </c>
-      <c r="J190" t="s">
-        <v>269</v>
-      </c>
-      <c r="L190" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="I190" t="s">
+        <v>252</v>
+      </c>
+      <c r="K190" t="s">
+        <v>254</v>
+      </c>
+      <c r="M190" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B191" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C191" s="2"/>
       <c r="E191" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F191" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G191" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H191" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I191" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K191" t="s">
-        <v>257</v>
+        <v>254</v>
+      </c>
+      <c r="M191" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B192" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C192" s="2"/>
       <c r="E192" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F192" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G192" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H192" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I192" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K192" t="s">
-        <v>257</v>
+        <v>254</v>
+      </c>
+      <c r="M192" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B193" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="C193" s="2"/>
       <c r="E193" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F193" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G193" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H193" t="s">
-        <v>249</v>
-      </c>
-      <c r="I193" t="s">
-        <v>255</v>
-      </c>
-      <c r="K193" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="J193" t="s">
+        <v>265</v>
+      </c>
+      <c r="L193" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="E194" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F194" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G194" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H194" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I194" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K194" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="E195" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F195" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G195" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H195" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I195" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K195" t="s">
-        <v>257</v>
-      </c>
-      <c r="M195" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="E196" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F196" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G196" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H196" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I196" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K196" t="s">
-        <v>257</v>
-      </c>
-      <c r="M196" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="E197" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F197" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G197" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H197" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I197" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K197" t="s">
-        <v>257</v>
-      </c>
-      <c r="M197" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="E198" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F198" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G198" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H198" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I198" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K198" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M198" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="E199" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F199" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G199" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H199" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I199" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K199" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M199" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="E200" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F200" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G200" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H200" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I200" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K200" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M200" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="E201" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F201" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G201" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H201" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I201" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K201" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M201" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="E202" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F202" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G202" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H202" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I202" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K202" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M202" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="E203" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F203" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G203" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H203" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I203" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K203" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M203" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="E204" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F204" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G204" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H204" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I204" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K204" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M204" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="E205" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F205" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G205" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H205" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I205" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K205" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M205" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="E206" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F206" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G206" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H206" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I206" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K206" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M206" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="E207" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F207" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G207" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H207" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I207" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K207" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M207" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C208" s="2"/>
       <c r="E208" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F208" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G208" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H208" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I208" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K208" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M208" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C209" s="2"/>
       <c r="E209" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F209" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G209" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H209" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I209" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K209" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M209" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C210" s="2"/>
       <c r="E210" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F210" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G210" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H210" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I210" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K210" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="M210" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C211" s="2"/>
       <c r="E211" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F211" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H211" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I211" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K211" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="M211" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C212" s="2"/>
       <c r="E212" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F212" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G212" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H212" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I212" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K212" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M212" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C213" s="2"/>
       <c r="E213" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F213" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G213" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H213" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I213" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K213" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M213" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C214" s="2"/>
       <c r="E214" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F214" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G214" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H214" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I214" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K214" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="M214" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C215" s="2"/>
       <c r="E215" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F215" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G215" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H215" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I215" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K215" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="M215" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C216" s="2"/>
       <c r="E216" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F216" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G216" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H216" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I216" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K216" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="M216" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C217" s="2"/>
       <c r="E217" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F217" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G217" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H217" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I217" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K217" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="M217" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C218" s="2"/>
       <c r="E218" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F218" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G218" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H218" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I218" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K218" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M218" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C219" s="2"/>
       <c r="E219" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F219" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G219" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H219" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I219" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K219" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M219" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C220" s="2"/>
       <c r="E220" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F220" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G220" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H220" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I220" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K220" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M220" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C221" s="2"/>
       <c r="E221" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F221" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G221" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H221" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I221" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K221" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M221" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C222" s="2"/>
       <c r="E222" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F222" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G222" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H222" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I222" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K222" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M222" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C223" s="2"/>
       <c r="E223" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F223" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G223" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H223" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I223" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K223" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M223" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C224" s="2"/>
       <c r="E224" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F224" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G224" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H224" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I224" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K224" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M224" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C225" s="2"/>
       <c r="E225" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F225" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G225" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H225" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I225" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K225" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M225" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C226" s="2"/>
       <c r="E226" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F226" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G226" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H226" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I226" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K226" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M226" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C227" s="2"/>
       <c r="E227" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F227" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G227" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H227" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I227" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K227" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M227" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C228" s="2"/>
       <c r="E228" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F228" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G228" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H228" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I228" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K228" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M228" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C229" s="2"/>
       <c r="E229" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F229" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G229" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H229" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I229" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K229" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M229" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C230" s="2"/>
       <c r="E230" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F230" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G230" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H230" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I230" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K230" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="M230" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C231" s="2"/>
       <c r="E231" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F231" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G231" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H231" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I231" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K231" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="M231" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C232" s="2"/>
       <c r="E232" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F232" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H232" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I232" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K232" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M232" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C233" s="2"/>
       <c r="E233" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F233" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G233" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H233" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I233" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K233" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M233" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A234" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C234" s="4"/>
+      <c r="A234" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C234" s="2"/>
       <c r="E234" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F234" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G234" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H234" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I234" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K234" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M234" t="s">
-        <v>265</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C235" s="2"/>
+      <c r="E235" t="s">
+        <v>253</v>
+      </c>
+      <c r="F235" t="s">
+        <v>245</v>
+      </c>
+      <c r="G235" t="s">
+        <v>246</v>
+      </c>
+      <c r="H235" t="s">
+        <v>247</v>
+      </c>
+      <c r="I235" t="s">
+        <v>252</v>
+      </c>
+      <c r="K235" t="s">
+        <v>254</v>
+      </c>
+      <c r="M235" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C236" s="2"/>
+      <c r="E236" t="s">
+        <v>253</v>
+      </c>
+      <c r="F236" t="s">
+        <v>245</v>
+      </c>
+      <c r="G236" t="s">
+        <v>246</v>
+      </c>
+      <c r="H236" t="s">
+        <v>247</v>
+      </c>
+      <c r="I236" t="s">
+        <v>252</v>
+      </c>
+      <c r="K236" t="s">
+        <v>254</v>
+      </c>
+      <c r="M236" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A237" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C237" s="4"/>
+      <c r="E237" t="s">
+        <v>253</v>
+      </c>
+      <c r="F237" t="s">
+        <v>245</v>
+      </c>
+      <c r="G237" t="s">
+        <v>246</v>
+      </c>
+      <c r="H237" t="s">
+        <v>247</v>
+      </c>
+      <c r="I237" t="s">
+        <v>252</v>
+      </c>
+      <c r="K237" t="s">
+        <v>254</v>
+      </c>
+      <c r="M237" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
